--- a/15 5/ExactModelData.xlsx
+++ b/15 5/ExactModelData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\great\Google Drive\University\2020\Industrial Project 498\Exact Model Implementation\15 5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Aaron\Google Drive\University\2020\Industrial Project 498\Exact Model Implementation\15 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC78AB3-3891-4410-9F2F-547FD65D8282}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0535DD-2131-45D0-A9BF-7B86741DB58C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1D" sheetId="3" r:id="rId1"/>
@@ -411,49 +411,49 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-83.503707554822554</c:v>
+                  <c:v>56.530100201314852</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32.838973211028375</c:v>
+                  <c:v>-65.579998284440066</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44.368713616605817</c:v>
+                  <c:v>-66.038442232236122</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-91.039523338186044</c:v>
+                  <c:v>83.181954876586744</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>69.019863248821977</c:v>
+                  <c:v>-0.55281430956678435</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-7.7689645484817191</c:v>
+                  <c:v>76.672657532796151</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-72.609760336112004</c:v>
+                  <c:v>56.69081828450463</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-21.347216383381237</c:v>
+                  <c:v>63.513853211915944</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>87.104851436961638</c:v>
+                  <c:v>37.623028268977123</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-21.188712341677814</c:v>
+                  <c:v>-2.5150378452829329</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.425110449126052</c:v>
+                  <c:v>19.930742184771219</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-76.029417833333497</c:v>
+                  <c:v>71.763363317041311</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>56.915780645085945</c:v>
+                  <c:v>82.598369535269001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>38.442823926569332</c:v>
+                  <c:v>80.827302329784303</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-31.596878782399244</c:v>
+                  <c:v>44.543348538911218</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -471,49 +471,49 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-91.882044162040643</c:v>
+                  <c:v>-73.593265410964577</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-42.899376810465185</c:v>
+                  <c:v>24.456589482026018</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-89.797262992063096</c:v>
+                  <c:v>46.763489691595595</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.5299828786307756</c:v>
+                  <c:v>-12.837539764738068</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-23.886618860526042</c:v>
+                  <c:v>-27.30235357095269</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-19.176063669361227</c:v>
+                  <c:v>99.305374989029488</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.1008963912182708</c:v>
+                  <c:v>75.88593896909866</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>81.074467280331476</c:v>
+                  <c:v>-26.742751149929987</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>63.571629006632904</c:v>
+                  <c:v>-18.970005524121802</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-36.536199534554356</c:v>
+                  <c:v>2.2001154731495944</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.0434138044774244</c:v>
+                  <c:v>-36.740260497059097</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-22.146944308185837</c:v>
+                  <c:v>-77.988708371134663</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-95.376069467604395</c:v>
+                  <c:v>-15.952638941813419</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-60.610229808791928</c:v>
+                  <c:v>-8.1908730907437217</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>71.533311313234975</c:v>
+                  <c:v>-37.002263825428415</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -1582,7 +1582,7 @@
   </sheetPr>
   <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
@@ -1670,19 +1670,19 @@
       </c>
       <c r="B2" t="str">
         <f ca="1">OFFSET($R$1,RANDBETWEEN(1,$P$8),0)</f>
-        <v>11 metre</v>
+        <v>8 metre</v>
       </c>
       <c r="C2" cm="1">
         <f t="array" aca="1" ref="C2:E2" ca="1">_xlfn.XLOOKUP(B2,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>0.82671605899585621</v>
+        <v>0.76081975825625792</v>
       </c>
       <c r="D2" s="8">
         <f ca="1"/>
-        <v>13.678900963907052</v>
+        <v>12.897082761850353</v>
       </c>
       <c r="E2" s="2">
         <f ca="1"/>
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="L2" cm="1">
         <f t="array" aca="1" ref="L2:L17" ca="1">_xlfn.RANDARRAY(P2+1,1,P7,P6,FALSE)</f>
-        <v>6.3638688664723386E-2</v>
+        <v>3.6802647870585098E-2</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>16</v>
@@ -1717,11 +1717,11 @@
       </c>
       <c r="S2" cm="1">
         <f t="array" aca="1" ref="S2:S4" ca="1">_xlfn.RANDARRAY(P8,1,P10,P9,FALSE)</f>
-        <v>1.2935285967234582</v>
+        <v>1.2530866491422734</v>
       </c>
       <c r="T2" cm="1">
         <f t="array" aca="1" ref="T2:T4" ca="1">_xlfn.RANDARRAY(P8,1,P12,P11,FALSE)</f>
-        <v>13.601574815529718</v>
+        <v>13.37424948813544</v>
       </c>
       <c r="U2">
         <v>16</v>
@@ -1733,34 +1733,34 @@
       </c>
       <c r="B3" t="str">
         <f ca="1">OFFSET($R$1,RANDBETWEEN(1,$P$8),0)</f>
-        <v>11 metre</v>
+        <v>8 metre</v>
       </c>
       <c r="C3" cm="1">
         <f t="array" aca="1" ref="C3:E3" ca="1">_xlfn.XLOOKUP(B3,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>0.82671605899585621</v>
+        <v>0.76081975825625792</v>
       </c>
       <c r="D3" s="8">
         <f ca="1"/>
-        <v>13.678900963907052</v>
+        <v>12.897082761850353</v>
       </c>
       <c r="E3" s="2">
         <f ca="1"/>
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" cm="1">
         <f t="array" aca="1" ref="G3:H17" ca="1">_xlfn.RANDARRAY(P2,2,P4,P3,FALSE)</f>
-        <v>-83.503707554822554</v>
+        <v>56.530100201314852</v>
       </c>
       <c r="H3">
         <f ca="1"/>
-        <v>-91.882044162040643</v>
+        <v>-73.593265410964577</v>
       </c>
       <c r="I3" cm="1">
         <f t="array" aca="1" ref="I3:I17" ca="1">_xlfn.RANDARRAY(P2,1,1,ROUNDUP((P14/P2),0),TRUE)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J3">
         <f ca="1">IF(RAND()&lt;$P$5,RANDBETWEEN(5,23), 0)</f>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="L3">
         <f ca="1"/>
-        <v>3.9615300530882774E-2</v>
+        <v>0.11656048608673181</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>14</v>
@@ -1785,11 +1785,11 @@
       </c>
       <c r="S3">
         <f ca="1"/>
-        <v>1.4273913079378417</v>
+        <v>0.76081975825625792</v>
       </c>
       <c r="T3">
         <f ca="1"/>
-        <v>8.4113605481441898</v>
+        <v>12.897082761850353</v>
       </c>
       <c r="U3">
         <v>22</v>
@@ -1801,34 +1801,34 @@
       </c>
       <c r="B4" t="str">
         <f ca="1">OFFSET($R$1,RANDBETWEEN(1,$P$8),0)</f>
-        <v>8 metre</v>
+        <v>11 metre</v>
       </c>
       <c r="C4" cm="1">
         <f t="array" aca="1" ref="C4:E4" ca="1">_xlfn.XLOOKUP(B4,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>1.4273913079378417</v>
+        <v>0.89412810623381089</v>
       </c>
       <c r="D4" s="8">
         <f ca="1"/>
-        <v>8.4113605481441898</v>
+        <v>14.286992420741701</v>
       </c>
       <c r="E4" s="2">
         <f ca="1"/>
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4">
         <f ca="1"/>
-        <v>32.838973211028375</v>
+        <v>-65.579998284440066</v>
       </c>
       <c r="H4">
         <f ca="1"/>
-        <v>-42.899376810465185</v>
+        <v>24.456589482026018</v>
       </c>
       <c r="I4">
         <f ca="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <f t="shared" ref="J4:J17" ca="1" si="0">IF(RAND()&lt;$P$5,RANDBETWEEN(5,23), 0)</f>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="L4">
         <f ca="1"/>
-        <v>9.3921951846831692E-2</v>
+        <v>0.12117173069761863</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>15</v>
@@ -1853,11 +1853,11 @@
       </c>
       <c r="S4">
         <f ca="1"/>
-        <v>0.82671605899585621</v>
+        <v>0.89412810623381089</v>
       </c>
       <c r="T4">
         <f ca="1"/>
-        <v>13.678900963907052</v>
+        <v>14.286992420741701</v>
       </c>
       <c r="U4">
         <v>30</v>
@@ -1869,46 +1869,46 @@
       </c>
       <c r="B5" t="str">
         <f ca="1">OFFSET($R$1,RANDBETWEEN(1,$P$8),0)</f>
-        <v>11 metre</v>
+        <v>Rigid</v>
       </c>
       <c r="C5" cm="1">
         <f t="array" aca="1" ref="C5:E5" ca="1">_xlfn.XLOOKUP(B5,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>0.82671605899585621</v>
+        <v>1.2530866491422734</v>
       </c>
       <c r="D5" s="8">
         <f ca="1"/>
-        <v>13.678900963907052</v>
+        <v>13.37424948813544</v>
       </c>
       <c r="E5" s="2">
         <f ca="1"/>
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5">
         <f ca="1"/>
-        <v>44.368713616605817</v>
+        <v>-66.038442232236122</v>
       </c>
       <c r="H5">
         <f ca="1"/>
-        <v>-89.797262992063096</v>
+        <v>46.763489691595595</v>
       </c>
       <c r="I5">
         <f ca="1"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L5">
         <f ca="1"/>
-        <v>4.5284104574492834E-2</v>
+        <v>0.13545044533306522</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>23</v>
@@ -1925,34 +1925,34 @@
       </c>
       <c r="B6" t="str">
         <f ca="1">OFFSET($R$1,RANDBETWEEN(1,$P$8),0)</f>
-        <v>Rigid</v>
+        <v>8 metre</v>
       </c>
       <c r="C6" cm="1">
         <f t="array" aca="1" ref="C6:E6" ca="1">_xlfn.XLOOKUP(B6,OFFSET($R$2,0,0,$P$8,1),OFFSET($S$2,0,0,$P$8,3))</f>
-        <v>1.2935285967234582</v>
+        <v>0.76081975825625792</v>
       </c>
       <c r="D6" s="8">
         <f ca="1"/>
-        <v>13.601574815529718</v>
+        <v>12.897082761850353</v>
       </c>
       <c r="E6" s="2">
         <f ca="1"/>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F6">
         <v>4</v>
       </c>
       <c r="G6">
         <f ca="1"/>
-        <v>-91.039523338186044</v>
+        <v>83.181954876586744</v>
       </c>
       <c r="H6">
         <f ca="1"/>
-        <v>-1.5299828786307756</v>
+        <v>-12.837539764738068</v>
       </c>
       <c r="I6">
         <f ca="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
@@ -1964,7 +1964,7 @@
       </c>
       <c r="L6">
         <f ca="1"/>
-        <v>1.9651337607100389E-2</v>
+        <v>5.5850051617898716E-2</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>25</v>
@@ -1981,11 +1981,11 @@
       </c>
       <c r="G7">
         <f ca="1"/>
-        <v>69.019863248821977</v>
+        <v>-0.55281430956678435</v>
       </c>
       <c r="H7">
         <f ca="1"/>
-        <v>-23.886618860526042</v>
+        <v>-27.30235357095269</v>
       </c>
       <c r="I7">
         <f ca="1"/>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="L7">
         <f ca="1"/>
-        <v>0.14550663275009612</v>
+        <v>9.4764367431034224E-2</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>24</v>
@@ -2017,15 +2017,15 @@
       </c>
       <c r="G8">
         <f ca="1"/>
-        <v>-7.7689645484817191</v>
+        <v>76.672657532796151</v>
       </c>
       <c r="H8">
         <f ca="1"/>
-        <v>-19.176063669361227</v>
+        <v>99.305374989029488</v>
       </c>
       <c r="I8">
         <f ca="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
@@ -2037,7 +2037,7 @@
       </c>
       <c r="L8">
         <f ca="1"/>
-        <v>7.9190930605902515E-2</v>
+        <v>0.10814727198800062</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>32</v>
@@ -2052,15 +2052,15 @@
       </c>
       <c r="G9">
         <f ca="1"/>
-        <v>-72.609760336112004</v>
+        <v>56.69081828450463</v>
       </c>
       <c r="H9">
         <f ca="1"/>
-        <v>7.1008963912182708</v>
+        <v>75.88593896909866</v>
       </c>
       <c r="I9">
         <f ca="1"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
@@ -2072,7 +2072,7 @@
       </c>
       <c r="L9">
         <f ca="1"/>
-        <v>8.2560659441961365E-2</v>
+        <v>0.13448995892926968</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>20</v>
@@ -2087,15 +2087,15 @@
       </c>
       <c r="G10">
         <f ca="1"/>
-        <v>-21.347216383381237</v>
+        <v>63.513853211915944</v>
       </c>
       <c r="H10">
         <f ca="1"/>
-        <v>81.074467280331476</v>
+        <v>-26.742751149929987</v>
       </c>
       <c r="I10">
         <f ca="1"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
@@ -2107,7 +2107,7 @@
       </c>
       <c r="L10">
         <f ca="1"/>
-        <v>8.6666163950968822E-2</v>
+        <v>0.15771136959538209</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>19</v>
@@ -2122,11 +2122,11 @@
       </c>
       <c r="G11">
         <f ca="1"/>
-        <v>87.104851436961638</v>
+        <v>37.623028268977123</v>
       </c>
       <c r="H11">
         <f ca="1"/>
-        <v>63.571629006632904</v>
+        <v>-18.970005524121802</v>
       </c>
       <c r="I11">
         <f ca="1"/>
@@ -2142,7 +2142,7 @@
       </c>
       <c r="L11">
         <f ca="1"/>
-        <v>5.4540566948042213E-2</v>
+        <v>0.12938945928405529</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>21</v>
@@ -2157,15 +2157,15 @@
       </c>
       <c r="G12">
         <f ca="1"/>
-        <v>-21.188712341677814</v>
+        <v>-2.5150378452829329</v>
       </c>
       <c r="H12">
         <f ca="1"/>
-        <v>-36.536199534554356</v>
+        <v>2.2001154731495944</v>
       </c>
       <c r="I12">
         <f ca="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="0"/>
@@ -2177,7 +2177,7 @@
       </c>
       <c r="L12">
         <f ca="1"/>
-        <v>6.1941676769612153E-2</v>
+        <v>1.7321618511172476E-2</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>22</v>
@@ -2192,27 +2192,27 @@
       </c>
       <c r="G13">
         <f ca="1"/>
-        <v>6.425110449126052</v>
+        <v>19.930742184771219</v>
       </c>
       <c r="H13">
         <f ca="1"/>
-        <v>8.0434138044774244</v>
+        <v>-36.740260497059097</v>
       </c>
       <c r="I13">
         <f ca="1"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="L13">
         <f ca="1"/>
-        <v>0.13982306834223285</v>
+        <v>8.9268777572418634E-2</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -2221,11 +2221,11 @@
       </c>
       <c r="G14">
         <f ca="1"/>
-        <v>-76.029417833333497</v>
+        <v>71.763363317041311</v>
       </c>
       <c r="H14">
         <f ca="1"/>
-        <v>-22.146944308185837</v>
+        <v>-77.988708371134663</v>
       </c>
       <c r="I14">
         <f ca="1"/>
@@ -2233,22 +2233,22 @@
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="L14">
         <f ca="1"/>
-        <v>0.10993037338872977</v>
+        <v>0.14209281246594763</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="P14">
         <f ca="1">SUM(E:E)</f>
-        <v>128</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -2257,15 +2257,15 @@
       </c>
       <c r="G15">
         <f ca="1"/>
-        <v>56.915780645085945</v>
+        <v>82.598369535269001</v>
       </c>
       <c r="H15">
         <f ca="1"/>
-        <v>-95.376069467604395</v>
+        <v>-15.952638941813419</v>
       </c>
       <c r="I15">
         <f ca="1"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="0"/>
@@ -2277,14 +2277,14 @@
       </c>
       <c r="L15">
         <f ca="1"/>
-        <v>6.1290953739418286E-2</v>
+        <v>0.14776674105319301</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>26</v>
       </c>
       <c r="P15">
         <f ca="1">SUM(I:I)</f>
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -2293,11 +2293,11 @@
       </c>
       <c r="G16">
         <f ca="1"/>
-        <v>38.442823926569332</v>
+        <v>80.827302329784303</v>
       </c>
       <c r="H16">
         <f ca="1"/>
-        <v>-60.610229808791928</v>
+        <v>-8.1908730907437217</v>
       </c>
       <c r="I16">
         <f ca="1"/>
@@ -2313,11 +2313,11 @@
       </c>
       <c r="L16">
         <f ca="1"/>
-        <v>4.285161484019423E-2</v>
+        <v>1.9038090056264251E-2</v>
       </c>
       <c r="P16" s="5">
         <f ca="1">P15/P14</f>
-        <v>0.640625</v>
+        <v>0.6160714285714286</v>
       </c>
     </row>
     <row r="17" spans="6:12" x14ac:dyDescent="0.25">
@@ -2326,11 +2326,11 @@
       </c>
       <c r="G17">
         <f ca="1"/>
-        <v>-31.596878782399244</v>
+        <v>44.543348538911218</v>
       </c>
       <c r="H17">
         <f ca="1"/>
-        <v>71.533311313234975</v>
+        <v>-37.002263825428415</v>
       </c>
       <c r="I17">
         <f ca="1"/>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="L17">
         <f ca="1"/>
-        <v>0.15682521012445039</v>
+        <v>2.7682261287624521E-2</v>
       </c>
     </row>
     <row r="18" spans="6:12" x14ac:dyDescent="0.25">
@@ -2400,63 +2400,63 @@
       </c>
       <c r="B1">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G2)^2+('1D'!$H$3-'1D'!$H2)^2)</f>
-        <v>124.15788019612978</v>
+        <v>92.798819726434957</v>
       </c>
       <c r="C1">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G2)^2+('1D'!$H$4-'1D'!$H2)^2)</f>
-        <v>54.025500388991468</v>
+        <v>69.991863413396189</v>
       </c>
       <c r="D1">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G2)^2+('1D'!$H$5-'1D'!$H2)^2)</f>
-        <v>100.16052709954221</v>
+        <v>80.919094289273616</v>
       </c>
       <c r="E1">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G2)^2+('1D'!$H$6-'1D'!$H2)^2)</f>
-        <v>91.052378646870196</v>
+        <v>84.16673953707452</v>
       </c>
       <c r="F1">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G2)^2+('1D'!$H$7-'1D'!$H2)^2)</f>
-        <v>73.036375070742153</v>
+        <v>27.307949651597333</v>
       </c>
       <c r="G1">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G2)^2+('1D'!$H$8-'1D'!$H2)^2)</f>
-        <v>20.690051425913889</v>
+        <v>125.46016863870862</v>
       </c>
       <c r="H1">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G2)^2+('1D'!$H$9-'1D'!$H2)^2)</f>
-        <v>72.956151389902971</v>
+        <v>94.723411103002888</v>
       </c>
       <c r="I1">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G2)^2+('1D'!$H$10-'1D'!$H2)^2)</f>
-        <v>83.837777237403188</v>
+        <v>68.914325716006886</v>
       </c>
       <c r="J1">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G2)^2+('1D'!$H$11-'1D'!$H2)^2)</f>
-        <v>107.83601976339875</v>
+        <v>42.13494233665763</v>
       </c>
       <c r="K1">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G2)^2+('1D'!$H$12-'1D'!$H2)^2)</f>
-        <v>42.235712461460146</v>
+        <v>3.3415450705321454</v>
       </c>
       <c r="L1">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G2)^2+('1D'!$H$13-'1D'!$H2)^2)</f>
-        <v>10.294588379994936</v>
+        <v>41.798100739478343</v>
       </c>
       <c r="M1">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G2)^2+('1D'!$H$14-'1D'!$H2)^2)</f>
-        <v>79.189390187483411</v>
+        <v>105.98216334823309</v>
       </c>
       <c r="N1">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G2)^2+('1D'!$H$15-'1D'!$H2)^2)</f>
-        <v>111.0675502274577</v>
+        <v>84.124772446008535</v>
       </c>
       <c r="O1">
         <f ca="1">SQRT(('1D'!$G$16-'1D'!$G2)^2+('1D'!$H$16-'1D'!$H2)^2)</f>
-        <v>71.773607049693283</v>
+        <v>81.241265400651073</v>
       </c>
       <c r="P1">
         <f ca="1">SQRT(('1D'!$G$17-'1D'!$G2)^2+('1D'!$H$17-'1D'!$H2)^2)</f>
-        <v>78.200878359682264</v>
+        <v>57.907490251827809</v>
       </c>
       <c r="Q1">
         <f>SQRT(('1D'!$G$18-'1D'!$G2)^2+('1D'!$H$18-'1D'!$H2)^2)</f>
@@ -2466,7 +2466,7 @@
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G3)^2+('1D'!$H$2-'1D'!$H3)^2)</f>
-        <v>124.15788019612978</v>
+        <v>92.798819726434957</v>
       </c>
       <c r="B2">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G3)^2+('1D'!$H$3-'1D'!$H3)^2)</f>
@@ -2474,73 +2474,73 @@
       </c>
       <c r="C2">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G3)^2+('1D'!$H$4-'1D'!$H3)^2)</f>
-        <v>126.23359722617349</v>
+        <v>156.60348079381021</v>
       </c>
       <c r="D2">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G3)^2+('1D'!$H$5-'1D'!$H3)^2)</f>
-        <v>127.88941476435747</v>
+        <v>171.78124488168908</v>
       </c>
       <c r="E2">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G3)^2+('1D'!$H$6-'1D'!$H3)^2)</f>
-        <v>90.665779088263747</v>
+        <v>66.344401093320286</v>
       </c>
       <c r="F2">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G3)^2+('1D'!$H$7-'1D'!$H3)^2)</f>
-        <v>166.99346547882709</v>
+        <v>73.493589162840422</v>
       </c>
       <c r="G2">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G3)^2+('1D'!$H$8-'1D'!$H3)^2)</f>
-        <v>104.98528895820772</v>
+        <v>174.06798231730747</v>
       </c>
       <c r="H2">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G3)^2+('1D'!$H$9-'1D'!$H3)^2)</f>
-        <v>99.58062365025657</v>
+        <v>149.47929078102752</v>
       </c>
       <c r="I2">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G3)^2+('1D'!$H$10-'1D'!$H3)^2)</f>
-        <v>183.7862460715188</v>
+        <v>47.368169614589135</v>
       </c>
       <c r="J2">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G3)^2+('1D'!$H$11-'1D'!$H3)^2)</f>
-        <v>230.80971578962158</v>
+        <v>57.802922847552956</v>
       </c>
       <c r="K2">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G3)^2+('1D'!$H$12-'1D'!$H3)^2)</f>
-        <v>83.344592781680234</v>
+        <v>96.077910639158844</v>
       </c>
       <c r="L2">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G3)^2+('1D'!$H$13-'1D'!$H3)^2)</f>
-        <v>134.43321560315994</v>
+        <v>51.938973597939707</v>
       </c>
       <c r="M2">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G3)^2+('1D'!$H$14-'1D'!$H3)^2)</f>
-        <v>70.134507615494513</v>
+        <v>15.854722450079691</v>
       </c>
       <c r="N2">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G3)^2+('1D'!$H$15-'1D'!$H3)^2)</f>
-        <v>140.46295198079872</v>
+        <v>63.261334840673285</v>
       </c>
       <c r="O2">
         <f ca="1">SQRT(('1D'!$G$16-'1D'!$G3)^2+('1D'!$H$16-'1D'!$H3)^2)</f>
-        <v>125.89234652386996</v>
+        <v>69.769814049342173</v>
       </c>
       <c r="P2">
         <f ca="1">SQRT(('1D'!$G$17-'1D'!$G3)^2+('1D'!$H$17-'1D'!$H3)^2)</f>
-        <v>171.46106636295121</v>
+        <v>38.504332385445224</v>
       </c>
       <c r="Q2">
         <f ca="1">SQRT(('1D'!$G$18-'1D'!$G3)^2+('1D'!$H$18-'1D'!$H3)^2)</f>
-        <v>124.15788019612978</v>
+        <v>92.798819726434957</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G4)^2+('1D'!$H$2-'1D'!$H4)^2)</f>
-        <v>54.025500388991468</v>
+        <v>69.991863413396189</v>
       </c>
       <c r="B3">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G4)^2+('1D'!$H$3-'1D'!$H4)^2)</f>
-        <v>126.23359722617349</v>
+        <v>156.60348079381021</v>
       </c>
       <c r="C3">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G4)^2+('1D'!$H$4-'1D'!$H4)^2)</f>
@@ -2548,73 +2548,73 @@
       </c>
       <c r="D3">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G4)^2+('1D'!$H$5-'1D'!$H4)^2)</f>
-        <v>48.294374849687387</v>
+        <v>22.311610605533748</v>
       </c>
       <c r="E3">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G4)^2+('1D'!$H$6-'1D'!$H4)^2)</f>
-        <v>130.60363188510885</v>
+        <v>153.36548107236479</v>
       </c>
       <c r="F3">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G4)^2+('1D'!$H$7-'1D'!$H4)^2)</f>
-        <v>40.87226160600715</v>
+        <v>83.111508479051864</v>
       </c>
       <c r="G3">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G4)^2+('1D'!$H$8-'1D'!$H4)^2)</f>
-        <v>47.029779879041769</v>
+        <v>160.74252324425694</v>
       </c>
       <c r="H3">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G4)^2+('1D'!$H$9-'1D'!$H4)^2)</f>
-        <v>116.70245381712758</v>
+        <v>132.64663800149623</v>
       </c>
       <c r="I3">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G4)^2+('1D'!$H$10-'1D'!$H4)^2)</f>
-        <v>135.29840043921607</v>
+        <v>138.87618577463266</v>
       </c>
       <c r="J3">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G4)^2+('1D'!$H$11-'1D'!$H4)^2)</f>
-        <v>119.50255486530969</v>
+        <v>111.9675571029989</v>
       </c>
       <c r="K3">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G4)^2+('1D'!$H$12-'1D'!$H4)^2)</f>
-        <v>54.40111056979228</v>
+        <v>66.877050402213811</v>
       </c>
       <c r="L3">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G4)^2+('1D'!$H$13-'1D'!$H4)^2)</f>
-        <v>57.383447627713124</v>
+        <v>105.15294186543456</v>
       </c>
       <c r="M3">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G4)^2+('1D'!$H$14-'1D'!$H4)^2)</f>
-        <v>110.82865163553039</v>
+        <v>171.34245833481577</v>
       </c>
       <c r="N3">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G4)^2+('1D'!$H$15-'1D'!$H4)^2)</f>
-        <v>57.736435016794537</v>
+        <v>153.58949974370978</v>
       </c>
       <c r="O3">
         <f ca="1">SQRT(('1D'!$G$16-'1D'!$G4)^2+('1D'!$H$16-'1D'!$H4)^2)</f>
-        <v>18.576260570158038</v>
+        <v>150.00318158487261</v>
       </c>
       <c r="P3">
         <f ca="1">SQRT(('1D'!$G$17-'1D'!$G4)^2+('1D'!$H$17-'1D'!$H4)^2)</f>
-        <v>131.32714545490944</v>
+        <v>126.11241875978479</v>
       </c>
       <c r="Q3">
         <f ca="1">SQRT(('1D'!$G$18-'1D'!$G4)^2+('1D'!$H$18-'1D'!$H4)^2)</f>
-        <v>54.025500388991468</v>
+        <v>69.991863413396189</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G5)^2+('1D'!$H$2-'1D'!$H5)^2)</f>
-        <v>100.16052709954221</v>
+        <v>80.919094289273616</v>
       </c>
       <c r="B4">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G5)^2+('1D'!$H$3-'1D'!$H5)^2)</f>
-        <v>127.88941476435747</v>
+        <v>171.78124488168908</v>
       </c>
       <c r="C4">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G5)^2+('1D'!$H$4-'1D'!$H5)^2)</f>
-        <v>48.294374849687387</v>
+        <v>22.311610605533748</v>
       </c>
       <c r="D4">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G5)^2+('1D'!$H$5-'1D'!$H5)^2)</f>
@@ -2622,73 +2622,73 @@
       </c>
       <c r="E4">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G5)^2+('1D'!$H$6-'1D'!$H5)^2)</f>
-        <v>161.63694928396842</v>
+        <v>160.68294752577057</v>
       </c>
       <c r="F4">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G5)^2+('1D'!$H$7-'1D'!$H5)^2)</f>
-        <v>70.369682307255246</v>
+        <v>98.864132032899875</v>
       </c>
       <c r="G4">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G5)^2+('1D'!$H$8-'1D'!$H5)^2)</f>
-        <v>87.782066951189023</v>
+        <v>152.07599319667023</v>
       </c>
       <c r="H4">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G5)^2+('1D'!$H$9-'1D'!$H5)^2)</f>
-        <v>151.89870526167917</v>
+        <v>126.1371810328214</v>
       </c>
       <c r="I4">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G5)^2+('1D'!$H$10-'1D'!$H5)^2)</f>
-        <v>183.07302275880292</v>
+        <v>148.9528942233122</v>
       </c>
       <c r="J4">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G5)^2+('1D'!$H$11-'1D'!$H5)^2)</f>
-        <v>159.21179136203489</v>
+        <v>122.74605028166343</v>
       </c>
       <c r="K4">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G5)^2+('1D'!$H$12-'1D'!$H5)^2)</f>
-        <v>84.466069986122903</v>
+        <v>77.595858308556913</v>
       </c>
       <c r="L4">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G5)^2+('1D'!$H$13-'1D'!$H5)^2)</f>
-        <v>104.94053105133537</v>
+        <v>119.84814126591479</v>
       </c>
       <c r="M4">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G5)^2+('1D'!$H$14-'1D'!$H5)^2)</f>
-        <v>138.10241009724277</v>
+        <v>185.88288929894424</v>
       </c>
       <c r="N4">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G5)^2+('1D'!$H$15-'1D'!$H5)^2)</f>
-        <v>13.731422821714968</v>
+        <v>161.32642252021537</v>
       </c>
       <c r="O4">
         <f ca="1">SQRT(('1D'!$G$16-'1D'!$G5)^2+('1D'!$H$16-'1D'!$H5)^2)</f>
-        <v>29.782529688726125</v>
+        <v>156.81048725952482</v>
       </c>
       <c r="P4">
         <f ca="1">SQRT(('1D'!$G$17-'1D'!$G5)^2+('1D'!$H$17-'1D'!$H5)^2)</f>
-        <v>178.32084969012757</v>
+        <v>138.72647156339207</v>
       </c>
       <c r="Q4">
         <f ca="1">SQRT(('1D'!$G$18-'1D'!$G5)^2+('1D'!$H$18-'1D'!$H5)^2)</f>
-        <v>100.16052709954221</v>
+        <v>80.919094289273616</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G6)^2+('1D'!$H$2-'1D'!$H6)^2)</f>
-        <v>91.052378646870196</v>
+        <v>84.16673953707452</v>
       </c>
       <c r="B5">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G6)^2+('1D'!$H$3-'1D'!$H6)^2)</f>
-        <v>90.665779088263747</v>
+        <v>66.344401093320286</v>
       </c>
       <c r="C5">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G6)^2+('1D'!$H$4-'1D'!$H6)^2)</f>
-        <v>130.60363188510885</v>
+        <v>153.36548107236479</v>
       </c>
       <c r="D5">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G6)^2+('1D'!$H$5-'1D'!$H6)^2)</f>
-        <v>161.63694928396842</v>
+        <v>160.68294752577057</v>
       </c>
       <c r="E5">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G6)^2+('1D'!$H$6-'1D'!$H6)^2)</f>
@@ -2696,73 +2696,73 @@
       </c>
       <c r="F5">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G6)^2+('1D'!$H$7-'1D'!$H6)^2)</f>
-        <v>161.61319997771301</v>
+        <v>84.974951656984558</v>
       </c>
       <c r="G5">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G6)^2+('1D'!$H$8-'1D'!$H6)^2)</f>
-        <v>85.119739945694093</v>
+        <v>112.33167087416022</v>
       </c>
       <c r="H5">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G6)^2+('1D'!$H$9-'1D'!$H6)^2)</f>
-        <v>20.350632454135845</v>
+        <v>92.593930668127115</v>
       </c>
       <c r="I5">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G6)^2+('1D'!$H$10-'1D'!$H6)^2)</f>
-        <v>108.07642127100254</v>
+        <v>24.087115368152684</v>
       </c>
       <c r="J5">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G6)^2+('1D'!$H$11-'1D'!$H6)^2)</f>
-        <v>189.66717727136603</v>
+        <v>45.969804545240059</v>
       </c>
       <c r="K5">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G6)^2+('1D'!$H$12-'1D'!$H6)^2)</f>
-        <v>78.131754117204977</v>
+        <v>87.006354001450688</v>
       </c>
       <c r="L5">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G6)^2+('1D'!$H$13-'1D'!$H6)^2)</f>
-        <v>97.933675328494672</v>
+        <v>67.61697986003675</v>
       </c>
       <c r="M5">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G6)^2+('1D'!$H$14-'1D'!$H6)^2)</f>
-        <v>25.502203156875797</v>
+        <v>66.144228803296514</v>
       </c>
       <c r="N5">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G6)^2+('1D'!$H$15-'1D'!$H6)^2)</f>
-        <v>175.20804760297844</v>
+        <v>3.1692924657747308</v>
       </c>
       <c r="O5">
         <f ca="1">SQRT(('1D'!$G$16-'1D'!$G6)^2+('1D'!$H$16-'1D'!$H6)^2)</f>
-        <v>142.32411542152485</v>
+        <v>5.2092129727409784</v>
       </c>
       <c r="P5">
         <f ca="1">SQRT(('1D'!$G$17-'1D'!$G6)^2+('1D'!$H$17-'1D'!$H6)^2)</f>
-        <v>94.189558603662292</v>
+        <v>45.572752699910133</v>
       </c>
       <c r="Q5">
         <f ca="1">SQRT(('1D'!$G$18-'1D'!$G6)^2+('1D'!$H$18-'1D'!$H6)^2)</f>
-        <v>91.052378646870196</v>
+        <v>84.16673953707452</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G7)^2+('1D'!$H$2-'1D'!$H7)^2)</f>
-        <v>73.036375070742153</v>
+        <v>27.307949651597333</v>
       </c>
       <c r="B6">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G7)^2+('1D'!$H$3-'1D'!$H7)^2)</f>
-        <v>166.99346547882709</v>
+        <v>73.493589162840422</v>
       </c>
       <c r="C6">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G7)^2+('1D'!$H$4-'1D'!$H7)^2)</f>
-        <v>40.87226160600715</v>
+        <v>83.111508479051864</v>
       </c>
       <c r="D6">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G7)^2+('1D'!$H$5-'1D'!$H7)^2)</f>
-        <v>70.369682307255246</v>
+        <v>98.864132032899875</v>
       </c>
       <c r="E6">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G7)^2+('1D'!$H$6-'1D'!$H7)^2)</f>
-        <v>161.61319997771301</v>
+        <v>84.974951656984558</v>
       </c>
       <c r="F6">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G7)^2+('1D'!$H$7-'1D'!$H7)^2)</f>
@@ -2770,73 +2770,73 @@
       </c>
       <c r="G6">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G7)^2+('1D'!$H$8-'1D'!$H7)^2)</f>
-        <v>76.933174929239541</v>
+        <v>148.30135006935615</v>
       </c>
       <c r="H6">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G7)^2+('1D'!$H$9-'1D'!$H7)^2)</f>
-        <v>144.97991715505694</v>
+        <v>118.00278467009265</v>
       </c>
       <c r="I6">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G7)^2+('1D'!$H$10-'1D'!$H7)^2)</f>
-        <v>138.50284720943995</v>
+        <v>64.069111451446119</v>
       </c>
       <c r="J6">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G7)^2+('1D'!$H$11-'1D'!$H7)^2)</f>
-        <v>89.308520969494069</v>
+        <v>39.074582282543886</v>
       </c>
       <c r="K6">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G7)^2+('1D'!$H$12-'1D'!$H7)^2)</f>
-        <v>91.091157646039747</v>
+        <v>29.567651257790697</v>
       </c>
       <c r="L6">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G7)^2+('1D'!$H$13-'1D'!$H7)^2)</f>
-        <v>70.268272100879415</v>
+        <v>22.553274126001838</v>
       </c>
       <c r="M6">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G7)^2+('1D'!$H$14-'1D'!$H7)^2)</f>
-        <v>145.05971325629389</v>
+        <v>88.31045300219597</v>
       </c>
       <c r="N6">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G7)^2+('1D'!$H$15-'1D'!$H7)^2)</f>
-        <v>72.506898732327258</v>
+        <v>83.922198475496202</v>
       </c>
       <c r="O6">
         <f ca="1">SQRT(('1D'!$G$16-'1D'!$G7)^2+('1D'!$H$16-'1D'!$H7)^2)</f>
-        <v>47.786807120733421</v>
+        <v>83.594091121201842</v>
       </c>
       <c r="P6">
         <f ca="1">SQRT(('1D'!$G$17-'1D'!$G7)^2+('1D'!$H$17-'1D'!$H7)^2)</f>
-        <v>138.66755875597849</v>
+        <v>46.127564021974223</v>
       </c>
       <c r="Q6">
         <f ca="1">SQRT(('1D'!$G$18-'1D'!$G7)^2+('1D'!$H$18-'1D'!$H7)^2)</f>
-        <v>73.036375070742153</v>
+        <v>27.307949651597333</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G8)^2+('1D'!$H$2-'1D'!$H8)^2)</f>
-        <v>20.690051425913889</v>
+        <v>125.46016863870862</v>
       </c>
       <c r="B7">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G8)^2+('1D'!$H$3-'1D'!$H8)^2)</f>
-        <v>104.98528895820772</v>
+        <v>174.06798231730747</v>
       </c>
       <c r="C7">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G8)^2+('1D'!$H$4-'1D'!$H8)^2)</f>
-        <v>47.029779879041769</v>
+        <v>160.74252324425694</v>
       </c>
       <c r="D7">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G8)^2+('1D'!$H$5-'1D'!$H8)^2)</f>
-        <v>87.782066951189023</v>
+        <v>152.07599319667023</v>
       </c>
       <c r="E7">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G8)^2+('1D'!$H$6-'1D'!$H8)^2)</f>
-        <v>85.119739945694093</v>
+        <v>112.33167087416022</v>
       </c>
       <c r="F7">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G8)^2+('1D'!$H$7-'1D'!$H8)^2)</f>
-        <v>76.933174929239541</v>
+        <v>148.30135006935615</v>
       </c>
       <c r="G7">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G8)^2+('1D'!$H$8-'1D'!$H8)^2)</f>
@@ -2844,73 +2844,73 @@
       </c>
       <c r="H7">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G8)^2+('1D'!$H$9-'1D'!$H8)^2)</f>
-        <v>69.962900371543085</v>
+        <v>30.785449212837499</v>
       </c>
       <c r="I7">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G8)^2+('1D'!$H$10-'1D'!$H8)^2)</f>
-        <v>101.16589286210667</v>
+        <v>126.73312208849845</v>
       </c>
       <c r="J7">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G8)^2+('1D'!$H$11-'1D'!$H8)^2)</f>
-        <v>125.88972000461571</v>
+        <v>124.55496449829866</v>
       </c>
       <c r="K7">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G8)^2+('1D'!$H$12-'1D'!$H8)^2)</f>
-        <v>21.94228675619194</v>
+        <v>125.30012978819228</v>
       </c>
       <c r="L7">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G8)^2+('1D'!$H$13-'1D'!$H8)^2)</f>
-        <v>30.69807353868519</v>
+        <v>147.40440933763182</v>
       </c>
       <c r="M7">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G8)^2+('1D'!$H$14-'1D'!$H8)^2)</f>
-        <v>68.325073102219037</v>
+        <v>177.36203980620454</v>
       </c>
       <c r="N7">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G8)^2+('1D'!$H$15-'1D'!$H8)^2)</f>
-        <v>99.952774570839537</v>
+        <v>115.41024147803621</v>
       </c>
       <c r="O7">
         <f ca="1">SQRT(('1D'!$G$16-'1D'!$G8)^2+('1D'!$H$16-'1D'!$H8)^2)</f>
-        <v>62.067056622114819</v>
+        <v>107.5765049842078</v>
       </c>
       <c r="P7">
         <f ca="1">SQRT(('1D'!$G$17-'1D'!$G8)^2+('1D'!$H$17-'1D'!$H8)^2)</f>
-        <v>93.786780552869914</v>
+        <v>140.04308228397878</v>
       </c>
       <c r="Q7">
         <f ca="1">SQRT(('1D'!$G$18-'1D'!$G8)^2+('1D'!$H$18-'1D'!$H8)^2)</f>
-        <v>20.690051425913889</v>
+        <v>125.46016863870862</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G9)^2+('1D'!$H$2-'1D'!$H9)^2)</f>
-        <v>72.956151389902971</v>
+        <v>94.723411103002888</v>
       </c>
       <c r="B8">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G9)^2+('1D'!$H$3-'1D'!$H9)^2)</f>
-        <v>99.58062365025657</v>
+        <v>149.47929078102752</v>
       </c>
       <c r="C8">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G9)^2+('1D'!$H$4-'1D'!$H9)^2)</f>
-        <v>116.70245381712758</v>
+        <v>132.64663800149623</v>
       </c>
       <c r="D8">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G9)^2+('1D'!$H$5-'1D'!$H9)^2)</f>
-        <v>151.89870526167917</v>
+        <v>126.1371810328214</v>
       </c>
       <c r="E8">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G9)^2+('1D'!$H$6-'1D'!$H9)^2)</f>
-        <v>20.350632454135845</v>
+        <v>92.593930668127115</v>
       </c>
       <c r="F8">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G9)^2+('1D'!$H$7-'1D'!$H9)^2)</f>
-        <v>144.97991715505694</v>
+        <v>118.00278467009265</v>
       </c>
       <c r="G8">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G9)^2+('1D'!$H$8-'1D'!$H9)^2)</f>
-        <v>69.962900371543085</v>
+        <v>30.785449212837499</v>
       </c>
       <c r="H8">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G9)^2+('1D'!$H$9-'1D'!$H9)^2)</f>
@@ -2918,73 +2918,73 @@
       </c>
       <c r="I8">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G9)^2+('1D'!$H$10-'1D'!$H9)^2)</f>
-        <v>89.999653347067451</v>
+        <v>102.85524702789004</v>
       </c>
       <c r="J8">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G9)^2+('1D'!$H$11-'1D'!$H9)^2)</f>
-        <v>169.40395761594618</v>
+        <v>96.753453797666438</v>
       </c>
       <c r="K8">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G9)^2+('1D'!$H$12-'1D'!$H9)^2)</f>
-        <v>67.441236033164358</v>
+        <v>94.524779737047069</v>
       </c>
       <c r="L8">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G9)^2+('1D'!$H$13-'1D'!$H9)^2)</f>
-        <v>79.040490504004168</v>
+        <v>118.47347382873917</v>
       </c>
       <c r="M8">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G9)^2+('1D'!$H$14-'1D'!$H9)^2)</f>
-        <v>29.447075287301836</v>
+        <v>154.611088566891</v>
       </c>
       <c r="N8">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G9)^2+('1D'!$H$15-'1D'!$H9)^2)</f>
-        <v>165.16172164912271</v>
+        <v>95.422877783630341</v>
       </c>
       <c r="O8">
         <f ca="1">SQRT(('1D'!$G$16-'1D'!$G9)^2+('1D'!$H$16-'1D'!$H9)^2)</f>
-        <v>130.06718680241241</v>
+        <v>87.472739686225097</v>
       </c>
       <c r="P8">
         <f ca="1">SQRT(('1D'!$G$17-'1D'!$G9)^2+('1D'!$H$17-'1D'!$H9)^2)</f>
-        <v>76.377958509126131</v>
+        <v>113.53989321554948</v>
       </c>
       <c r="Q8">
         <f ca="1">SQRT(('1D'!$G$18-'1D'!$G9)^2+('1D'!$H$18-'1D'!$H9)^2)</f>
-        <v>72.956151389902971</v>
+        <v>94.723411103002888</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G10)^2+('1D'!$H$2-'1D'!$H10)^2)</f>
-        <v>83.837777237403188</v>
+        <v>68.914325716006886</v>
       </c>
       <c r="B9">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G10)^2+('1D'!$H$3-'1D'!$H10)^2)</f>
-        <v>183.7862460715188</v>
+        <v>47.368169614589135</v>
       </c>
       <c r="C9">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G10)^2+('1D'!$H$4-'1D'!$H10)^2)</f>
-        <v>135.29840043921607</v>
+        <v>138.87618577463266</v>
       </c>
       <c r="D9">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G10)^2+('1D'!$H$5-'1D'!$H10)^2)</f>
-        <v>183.07302275880292</v>
+        <v>148.9528942233122</v>
       </c>
       <c r="E9">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G10)^2+('1D'!$H$6-'1D'!$H10)^2)</f>
-        <v>108.07642127100254</v>
+        <v>24.087115368152684</v>
       </c>
       <c r="F9">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G10)^2+('1D'!$H$7-'1D'!$H10)^2)</f>
-        <v>138.50284720943995</v>
+        <v>64.069111451446119</v>
       </c>
       <c r="G9">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G10)^2+('1D'!$H$8-'1D'!$H10)^2)</f>
-        <v>101.16589286210667</v>
+        <v>126.73312208849845</v>
       </c>
       <c r="H9">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G10)^2+('1D'!$H$9-'1D'!$H10)^2)</f>
-        <v>89.999653347067451</v>
+        <v>102.85524702789004</v>
       </c>
       <c r="I9">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G10)^2+('1D'!$H$10-'1D'!$H10)^2)</f>
@@ -2992,73 +2992,73 @@
       </c>
       <c r="J9">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G10)^2+('1D'!$H$11-'1D'!$H10)^2)</f>
-        <v>109.85536109878069</v>
+        <v>27.03239520999616</v>
       </c>
       <c r="K9">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G10)^2+('1D'!$H$12-'1D'!$H10)^2)</f>
-        <v>117.61077362288425</v>
+        <v>72.093716665218551</v>
       </c>
       <c r="L9">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G10)^2+('1D'!$H$13-'1D'!$H10)^2)</f>
-        <v>78.133455763102262</v>
+        <v>44.715073073297752</v>
       </c>
       <c r="M9">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G10)^2+('1D'!$H$14-'1D'!$H10)^2)</f>
-        <v>116.81097108465137</v>
+        <v>51.905708245742154</v>
       </c>
       <c r="N9">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G10)^2+('1D'!$H$15-'1D'!$H10)^2)</f>
-        <v>193.02820680541103</v>
+        <v>21.923623896611517</v>
       </c>
       <c r="O9">
         <f ca="1">SQRT(('1D'!$G$16-'1D'!$G10)^2+('1D'!$H$16-'1D'!$H10)^2)</f>
-        <v>153.78362172059212</v>
+        <v>25.375730528990363</v>
       </c>
       <c r="P9">
         <f ca="1">SQRT(('1D'!$G$17-'1D'!$G10)^2+('1D'!$H$17-'1D'!$H10)^2)</f>
-        <v>14.003186654554909</v>
+        <v>21.567050050649186</v>
       </c>
       <c r="Q9">
         <f ca="1">SQRT(('1D'!$G$18-'1D'!$G10)^2+('1D'!$H$18-'1D'!$H10)^2)</f>
-        <v>83.837777237403188</v>
+        <v>68.914325716006886</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G11)^2+('1D'!$H$2-'1D'!$H11)^2)</f>
-        <v>107.83601976339875</v>
+        <v>42.13494233665763</v>
       </c>
       <c r="B10">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G11)^2+('1D'!$H$3-'1D'!$H11)^2)</f>
-        <v>230.80971578962158</v>
+        <v>57.802922847552956</v>
       </c>
       <c r="C10">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G11)^2+('1D'!$H$4-'1D'!$H11)^2)</f>
-        <v>119.50255486530969</v>
+        <v>111.9675571029989</v>
       </c>
       <c r="D10">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G11)^2+('1D'!$H$5-'1D'!$H11)^2)</f>
-        <v>159.21179136203489</v>
+        <v>122.74605028166343</v>
       </c>
       <c r="E10">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G11)^2+('1D'!$H$6-'1D'!$H11)^2)</f>
-        <v>189.66717727136603</v>
+        <v>45.969804545240059</v>
       </c>
       <c r="F10">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G11)^2+('1D'!$H$7-'1D'!$H11)^2)</f>
-        <v>89.308520969494069</v>
+        <v>39.074582282543886</v>
       </c>
       <c r="G10">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G11)^2+('1D'!$H$8-'1D'!$H11)^2)</f>
-        <v>125.88972000461571</v>
+        <v>124.55496449829866</v>
       </c>
       <c r="H10">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G11)^2+('1D'!$H$9-'1D'!$H11)^2)</f>
-        <v>169.40395761594618</v>
+        <v>96.753453797666438</v>
       </c>
       <c r="I10">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G11)^2+('1D'!$H$10-'1D'!$H11)^2)</f>
-        <v>109.85536109878069</v>
+        <v>27.03239520999616</v>
       </c>
       <c r="J10">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G11)^2+('1D'!$H$11-'1D'!$H11)^2)</f>
@@ -3066,73 +3066,73 @@
       </c>
       <c r="K10">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G11)^2+('1D'!$H$12-'1D'!$H11)^2)</f>
-        <v>147.47567016667529</v>
+        <v>45.37883178787024</v>
       </c>
       <c r="L10">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G11)^2+('1D'!$H$13-'1D'!$H11)^2)</f>
-        <v>97.941836257041501</v>
+        <v>25.075863867244706</v>
       </c>
       <c r="M10">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G11)^2+('1D'!$H$14-'1D'!$H11)^2)</f>
-        <v>184.28364990275486</v>
+        <v>68.181887352419949</v>
       </c>
       <c r="N10">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G11)^2+('1D'!$H$15-'1D'!$H11)^2)</f>
-        <v>161.78921733395569</v>
+        <v>45.076444215481864</v>
       </c>
       <c r="O10">
         <f ca="1">SQRT(('1D'!$G$16-'1D'!$G11)^2+('1D'!$H$16-'1D'!$H11)^2)</f>
-        <v>133.3758860524506</v>
+        <v>44.528631161732775</v>
       </c>
       <c r="P10">
         <f ca="1">SQRT(('1D'!$G$17-'1D'!$G11)^2+('1D'!$H$17-'1D'!$H11)^2)</f>
-        <v>118.96843758838389</v>
+        <v>19.314584439834629</v>
       </c>
       <c r="Q10">
         <f ca="1">SQRT(('1D'!$G$18-'1D'!$G11)^2+('1D'!$H$18-'1D'!$H11)^2)</f>
-        <v>107.83601976339875</v>
+        <v>42.13494233665763</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G12)^2+('1D'!$H$2-'1D'!$H12)^2)</f>
-        <v>42.235712461460146</v>
+        <v>3.3415450705321454</v>
       </c>
       <c r="B11">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G12)^2+('1D'!$H$3-'1D'!$H12)^2)</f>
-        <v>83.344592781680234</v>
+        <v>96.077910639158844</v>
       </c>
       <c r="C11">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G12)^2+('1D'!$H$4-'1D'!$H12)^2)</f>
-        <v>54.40111056979228</v>
+        <v>66.877050402213811</v>
       </c>
       <c r="D11">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G12)^2+('1D'!$H$5-'1D'!$H12)^2)</f>
-        <v>84.466069986122903</v>
+        <v>77.595858308556913</v>
       </c>
       <c r="E11">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G12)^2+('1D'!$H$6-'1D'!$H12)^2)</f>
-        <v>78.131754117204977</v>
+        <v>87.006354001450688</v>
       </c>
       <c r="F11">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G12)^2+('1D'!$H$7-'1D'!$H12)^2)</f>
-        <v>91.091157646039747</v>
+        <v>29.567651257790697</v>
       </c>
       <c r="G11">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G12)^2+('1D'!$H$8-'1D'!$H12)^2)</f>
-        <v>21.94228675619194</v>
+        <v>125.30012978819228</v>
       </c>
       <c r="H11">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G12)^2+('1D'!$H$9-'1D'!$H12)^2)</f>
-        <v>67.441236033164358</v>
+        <v>94.524779737047069</v>
       </c>
       <c r="I11">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G12)^2+('1D'!$H$10-'1D'!$H12)^2)</f>
-        <v>117.61077362288425</v>
+        <v>72.093716665218551</v>
       </c>
       <c r="J11">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G12)^2+('1D'!$H$11-'1D'!$H12)^2)</f>
-        <v>147.47567016667529</v>
+        <v>45.37883178787024</v>
       </c>
       <c r="K11">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G12)^2+('1D'!$H$12-'1D'!$H12)^2)</f>
@@ -3140,73 +3140,73 @@
       </c>
       <c r="L11">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G12)^2+('1D'!$H$13-'1D'!$H12)^2)</f>
-        <v>52.439156501411226</v>
+        <v>44.946255927037839</v>
       </c>
       <c r="M11">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G12)^2+('1D'!$H$14-'1D'!$H12)^2)</f>
-        <v>56.697033827106758</v>
+        <v>109.3047498911224</v>
       </c>
       <c r="N11">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G12)^2+('1D'!$H$15-'1D'!$H12)^2)</f>
-        <v>97.787740123482124</v>
+        <v>87.027665766569612</v>
       </c>
       <c r="O11">
         <f ca="1">SQRT(('1D'!$G$16-'1D'!$G12)^2+('1D'!$H$16-'1D'!$H12)^2)</f>
-        <v>64.307690452668112</v>
+        <v>83.987608069235947</v>
       </c>
       <c r="P11">
         <f ca="1">SQRT(('1D'!$G$17-'1D'!$G12)^2+('1D'!$H$17-'1D'!$H12)^2)</f>
-        <v>108.56955882538261</v>
+        <v>61.248006267581374</v>
       </c>
       <c r="Q11">
         <f ca="1">SQRT(('1D'!$G$18-'1D'!$G12)^2+('1D'!$H$18-'1D'!$H12)^2)</f>
-        <v>42.235712461460146</v>
+        <v>3.3415450705321454</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G13)^2+('1D'!$H$2-'1D'!$H13)^2)</f>
-        <v>10.294588379994936</v>
+        <v>41.798100739478343</v>
       </c>
       <c r="B12">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G13)^2+('1D'!$H$3-'1D'!$H13)^2)</f>
-        <v>134.43321560315994</v>
+        <v>51.938973597939707</v>
       </c>
       <c r="C12">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G13)^2+('1D'!$H$4-'1D'!$H13)^2)</f>
-        <v>57.383447627713124</v>
+        <v>105.15294186543456</v>
       </c>
       <c r="D12">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G13)^2+('1D'!$H$5-'1D'!$H13)^2)</f>
-        <v>104.94053105133537</v>
+        <v>119.84814126591479</v>
       </c>
       <c r="E12">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G13)^2+('1D'!$H$6-'1D'!$H13)^2)</f>
-        <v>97.933675328494672</v>
+        <v>67.61697986003675</v>
       </c>
       <c r="F12">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G13)^2+('1D'!$H$7-'1D'!$H13)^2)</f>
-        <v>70.268272100879415</v>
+        <v>22.553274126001838</v>
       </c>
       <c r="G12">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G13)^2+('1D'!$H$8-'1D'!$H13)^2)</f>
-        <v>30.69807353868519</v>
+        <v>147.40440933763182</v>
       </c>
       <c r="H12">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G13)^2+('1D'!$H$9-'1D'!$H13)^2)</f>
-        <v>79.040490504004168</v>
+        <v>118.47347382873917</v>
       </c>
       <c r="I12">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G13)^2+('1D'!$H$10-'1D'!$H13)^2)</f>
-        <v>78.133455763102262</v>
+        <v>44.715073073297752</v>
       </c>
       <c r="J12">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G13)^2+('1D'!$H$11-'1D'!$H13)^2)</f>
-        <v>97.941836257041501</v>
+        <v>25.075863867244706</v>
       </c>
       <c r="K12">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G13)^2+('1D'!$H$12-'1D'!$H13)^2)</f>
-        <v>52.439156501411226</v>
+        <v>44.946255927037839</v>
       </c>
       <c r="L12">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G13)^2+('1D'!$H$13-'1D'!$H13)^2)</f>
@@ -3214,73 +3214,73 @@
       </c>
       <c r="M12">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G13)^2+('1D'!$H$14-'1D'!$H13)^2)</f>
-        <v>87.807784149548922</v>
+        <v>66.242396284115358</v>
       </c>
       <c r="N12">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G13)^2+('1D'!$H$15-'1D'!$H13)^2)</f>
-        <v>115.0864774728187</v>
+        <v>66.025424857890712</v>
       </c>
       <c r="O12">
         <f ca="1">SQRT(('1D'!$G$16-'1D'!$G13)^2+('1D'!$H$16-'1D'!$H13)^2)</f>
-        <v>75.752602316365682</v>
+        <v>67.256661817035464</v>
       </c>
       <c r="P12">
         <f ca="1">SQRT(('1D'!$G$17-'1D'!$G13)^2+('1D'!$H$17-'1D'!$H13)^2)</f>
-        <v>74.004315757898638</v>
+        <v>24.614000838708225</v>
       </c>
       <c r="Q12">
         <f ca="1">SQRT(('1D'!$G$18-'1D'!$G13)^2+('1D'!$H$18-'1D'!$H13)^2)</f>
-        <v>10.294588379994936</v>
+        <v>41.798100739478343</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G14)^2+('1D'!$H$2-'1D'!$H14)^2)</f>
-        <v>79.189390187483411</v>
+        <v>105.98216334823309</v>
       </c>
       <c r="B13">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G14)^2+('1D'!$H$3-'1D'!$H14)^2)</f>
-        <v>70.134507615494513</v>
+        <v>15.854722450079691</v>
       </c>
       <c r="C13">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G14)^2+('1D'!$H$4-'1D'!$H14)^2)</f>
-        <v>110.82865163553039</v>
+        <v>171.34245833481577</v>
       </c>
       <c r="D13">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G14)^2+('1D'!$H$5-'1D'!$H14)^2)</f>
-        <v>138.10241009724277</v>
+        <v>185.88288929894424</v>
       </c>
       <c r="E13">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G14)^2+('1D'!$H$6-'1D'!$H14)^2)</f>
-        <v>25.502203156875797</v>
+        <v>66.144228803296514</v>
       </c>
       <c r="F13">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G14)^2+('1D'!$H$7-'1D'!$H14)^2)</f>
-        <v>145.05971325629389</v>
+        <v>88.31045300219597</v>
       </c>
       <c r="G13">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G14)^2+('1D'!$H$8-'1D'!$H14)^2)</f>
-        <v>68.325073102219037</v>
+        <v>177.36203980620454</v>
       </c>
       <c r="H13">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G14)^2+('1D'!$H$9-'1D'!$H14)^2)</f>
-        <v>29.447075287301836</v>
+        <v>154.611088566891</v>
       </c>
       <c r="I13">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G14)^2+('1D'!$H$10-'1D'!$H14)^2)</f>
-        <v>116.81097108465137</v>
+        <v>51.905708245742154</v>
       </c>
       <c r="J13">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G14)^2+('1D'!$H$11-'1D'!$H14)^2)</f>
-        <v>184.28364990275486</v>
+        <v>68.181887352419949</v>
       </c>
       <c r="K13">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G14)^2+('1D'!$H$12-'1D'!$H14)^2)</f>
-        <v>56.697033827106758</v>
+        <v>109.3047498911224</v>
       </c>
       <c r="L13">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G14)^2+('1D'!$H$13-'1D'!$H14)^2)</f>
-        <v>87.807784149548922</v>
+        <v>66.242396284115358</v>
       </c>
       <c r="M13">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G14)^2+('1D'!$H$14-'1D'!$H14)^2)</f>
@@ -3288,73 +3288,73 @@
       </c>
       <c r="N13">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G14)^2+('1D'!$H$15-'1D'!$H14)^2)</f>
-        <v>151.77921652874656</v>
+        <v>62.975163913947846</v>
       </c>
       <c r="O13">
         <f ca="1">SQRT(('1D'!$G$16-'1D'!$G14)^2+('1D'!$H$16-'1D'!$H14)^2)</f>
-        <v>120.7614113243083</v>
+        <v>70.383895887165195</v>
       </c>
       <c r="P13">
         <f ca="1">SQRT(('1D'!$G$17-'1D'!$G14)^2+('1D'!$H$17-'1D'!$H14)^2)</f>
-        <v>103.6833680963709</v>
+        <v>49.201807294243515</v>
       </c>
       <c r="Q13">
         <f ca="1">SQRT(('1D'!$G$18-'1D'!$G14)^2+('1D'!$H$18-'1D'!$H14)^2)</f>
-        <v>79.189390187483411</v>
+        <v>105.98216334823309</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G15)^2+('1D'!$H$2-'1D'!$H15)^2)</f>
-        <v>111.0675502274577</v>
+        <v>84.124772446008535</v>
       </c>
       <c r="B14">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G15)^2+('1D'!$H$3-'1D'!$H15)^2)</f>
-        <v>140.46295198079872</v>
+        <v>63.261334840673285</v>
       </c>
       <c r="C14">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G15)^2+('1D'!$H$4-'1D'!$H15)^2)</f>
-        <v>57.736435016794537</v>
+        <v>153.58949974370978</v>
       </c>
       <c r="D14">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G15)^2+('1D'!$H$5-'1D'!$H15)^2)</f>
-        <v>13.731422821714968</v>
+        <v>161.32642252021537</v>
       </c>
       <c r="E14">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G15)^2+('1D'!$H$6-'1D'!$H15)^2)</f>
-        <v>175.20804760297844</v>
+        <v>3.1692924657747308</v>
       </c>
       <c r="F14">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G15)^2+('1D'!$H$7-'1D'!$H15)^2)</f>
-        <v>72.506898732327258</v>
+        <v>83.922198475496202</v>
       </c>
       <c r="G14">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G15)^2+('1D'!$H$8-'1D'!$H15)^2)</f>
-        <v>99.952774570839537</v>
+        <v>115.41024147803621</v>
       </c>
       <c r="H14">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G15)^2+('1D'!$H$9-'1D'!$H15)^2)</f>
-        <v>165.16172164912271</v>
+        <v>95.422877783630341</v>
       </c>
       <c r="I14">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G15)^2+('1D'!$H$10-'1D'!$H15)^2)</f>
-        <v>193.02820680541103</v>
+        <v>21.923623896611517</v>
       </c>
       <c r="J14">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G15)^2+('1D'!$H$11-'1D'!$H15)^2)</f>
-        <v>161.78921733395569</v>
+        <v>45.076444215481864</v>
       </c>
       <c r="K14">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G15)^2+('1D'!$H$12-'1D'!$H15)^2)</f>
-        <v>97.787740123482124</v>
+        <v>87.027665766569612</v>
       </c>
       <c r="L14">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G15)^2+('1D'!$H$13-'1D'!$H15)^2)</f>
-        <v>115.0864774728187</v>
+        <v>66.025424857890712</v>
       </c>
       <c r="M14">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G15)^2+('1D'!$H$14-'1D'!$H15)^2)</f>
-        <v>151.77921652874656</v>
+        <v>62.975163913947846</v>
       </c>
       <c r="N14">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G15)^2+('1D'!$H$15-'1D'!$H15)^2)</f>
@@ -3362,73 +3362,73 @@
       </c>
       <c r="O14">
         <f ca="1">SQRT(('1D'!$G$16-'1D'!$G15)^2+('1D'!$H$16-'1D'!$H15)^2)</f>
-        <v>39.368943814972297</v>
+        <v>7.9612617199270037</v>
       </c>
       <c r="P14">
         <f ca="1">SQRT(('1D'!$G$17-'1D'!$G15)^2+('1D'!$H$17-'1D'!$H15)^2)</f>
-        <v>188.92652611946585</v>
+        <v>43.488749473560809</v>
       </c>
       <c r="Q14">
         <f ca="1">SQRT(('1D'!$G$18-'1D'!$G15)^2+('1D'!$H$18-'1D'!$H15)^2)</f>
-        <v>111.0675502274577</v>
+        <v>84.124772446008535</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G16)^2+('1D'!$H$2-'1D'!$H16)^2)</f>
-        <v>71.773607049693283</v>
+        <v>81.241265400651073</v>
       </c>
       <c r="B15">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G16)^2+('1D'!$H$3-'1D'!$H16)^2)</f>
-        <v>125.89234652386996</v>
+        <v>69.769814049342173</v>
       </c>
       <c r="C15">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G16)^2+('1D'!$H$4-'1D'!$H16)^2)</f>
-        <v>18.576260570158038</v>
+        <v>150.00318158487261</v>
       </c>
       <c r="D15">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G16)^2+('1D'!$H$5-'1D'!$H16)^2)</f>
-        <v>29.782529688726125</v>
+        <v>156.81048725952482</v>
       </c>
       <c r="E15">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G16)^2+('1D'!$H$6-'1D'!$H16)^2)</f>
-        <v>142.32411542152485</v>
+        <v>5.2092129727409784</v>
       </c>
       <c r="F15">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G16)^2+('1D'!$H$7-'1D'!$H16)^2)</f>
-        <v>47.786807120733421</v>
+        <v>83.594091121201842</v>
       </c>
       <c r="G15">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G16)^2+('1D'!$H$8-'1D'!$H16)^2)</f>
-        <v>62.067056622114819</v>
+        <v>107.5765049842078</v>
       </c>
       <c r="H15">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G16)^2+('1D'!$H$9-'1D'!$H16)^2)</f>
-        <v>130.06718680241241</v>
+        <v>87.472739686225097</v>
       </c>
       <c r="I15">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G16)^2+('1D'!$H$10-'1D'!$H16)^2)</f>
-        <v>153.78362172059212</v>
+        <v>25.375730528990363</v>
       </c>
       <c r="J15">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G16)^2+('1D'!$H$11-'1D'!$H16)^2)</f>
-        <v>133.3758860524506</v>
+        <v>44.528631161732775</v>
       </c>
       <c r="K15">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G16)^2+('1D'!$H$12-'1D'!$H16)^2)</f>
-        <v>64.307690452668112</v>
+        <v>83.987608069235947</v>
       </c>
       <c r="L15">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G16)^2+('1D'!$H$13-'1D'!$H16)^2)</f>
-        <v>75.752602316365682</v>
+        <v>67.256661817035464</v>
       </c>
       <c r="M15">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G16)^2+('1D'!$H$14-'1D'!$H16)^2)</f>
-        <v>120.7614113243083</v>
+        <v>70.383895887165195</v>
       </c>
       <c r="N15">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G16)^2+('1D'!$H$15-'1D'!$H16)^2)</f>
-        <v>39.368943814972297</v>
+        <v>7.9612617199270037</v>
       </c>
       <c r="O15">
         <f ca="1">SQRT(('1D'!$G$16-'1D'!$G16)^2+('1D'!$H$16-'1D'!$H16)^2)</f>
@@ -3436,73 +3436,73 @@
       </c>
       <c r="P15">
         <f ca="1">SQRT(('1D'!$G$17-'1D'!$G16)^2+('1D'!$H$17-'1D'!$H16)^2)</f>
-        <v>149.55759899058796</v>
+        <v>46.331647270142341</v>
       </c>
       <c r="Q15">
         <f ca="1">SQRT(('1D'!$G$18-'1D'!$G16)^2+('1D'!$H$18-'1D'!$H16)^2)</f>
-        <v>71.773607049693283</v>
+        <v>81.241265400651073</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <f ca="1">SQRT(('1D'!$G$2-'1D'!$G17)^2+('1D'!$H$2-'1D'!$H17)^2)</f>
-        <v>78.200878359682264</v>
+        <v>57.907490251827809</v>
       </c>
       <c r="B16">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G17)^2+('1D'!$H$3-'1D'!$H17)^2)</f>
-        <v>171.46106636295121</v>
+        <v>38.504332385445224</v>
       </c>
       <c r="C16">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G17)^2+('1D'!$H$4-'1D'!$H17)^2)</f>
-        <v>131.32714545490944</v>
+        <v>126.11241875978479</v>
       </c>
       <c r="D16">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G17)^2+('1D'!$H$5-'1D'!$H17)^2)</f>
-        <v>178.32084969012757</v>
+        <v>138.72647156339207</v>
       </c>
       <c r="E16">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G17)^2+('1D'!$H$6-'1D'!$H17)^2)</f>
-        <v>94.189558603662292</v>
+        <v>45.572752699910133</v>
       </c>
       <c r="F16">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G17)^2+('1D'!$H$7-'1D'!$H17)^2)</f>
-        <v>138.66755875597849</v>
+        <v>46.127564021974223</v>
       </c>
       <c r="G16">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G17)^2+('1D'!$H$8-'1D'!$H17)^2)</f>
-        <v>93.786780552869914</v>
+        <v>140.04308228397878</v>
       </c>
       <c r="H16">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G17)^2+('1D'!$H$9-'1D'!$H17)^2)</f>
-        <v>76.377958509126131</v>
+        <v>113.53989321554948</v>
       </c>
       <c r="I16">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G17)^2+('1D'!$H$10-'1D'!$H17)^2)</f>
-        <v>14.003186654554909</v>
+        <v>21.567050050649186</v>
       </c>
       <c r="J16">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G17)^2+('1D'!$H$11-'1D'!$H17)^2)</f>
-        <v>118.96843758838389</v>
+        <v>19.314584439834629</v>
       </c>
       <c r="K16">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G17)^2+('1D'!$H$12-'1D'!$H17)^2)</f>
-        <v>108.56955882538261</v>
+        <v>61.248006267581374</v>
       </c>
       <c r="L16">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G17)^2+('1D'!$H$13-'1D'!$H17)^2)</f>
-        <v>74.004315757898638</v>
+        <v>24.614000838708225</v>
       </c>
       <c r="M16">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G17)^2+('1D'!$H$14-'1D'!$H17)^2)</f>
-        <v>103.6833680963709</v>
+        <v>49.201807294243515</v>
       </c>
       <c r="N16">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G17)^2+('1D'!$H$15-'1D'!$H17)^2)</f>
-        <v>188.92652611946585</v>
+        <v>43.488749473560809</v>
       </c>
       <c r="O16">
         <f ca="1">SQRT(('1D'!$G$16-'1D'!$G17)^2+('1D'!$H$16-'1D'!$H17)^2)</f>
-        <v>149.55759899058796</v>
+        <v>46.331647270142341</v>
       </c>
       <c r="P16">
         <f ca="1">SQRT(('1D'!$G$17-'1D'!$G17)^2+('1D'!$H$17-'1D'!$H17)^2)</f>
@@ -3510,7 +3510,7 @@
       </c>
       <c r="Q16">
         <f ca="1">SQRT(('1D'!$G$18-'1D'!$G17)^2+('1D'!$H$18-'1D'!$H17)^2)</f>
-        <v>78.200878359682264</v>
+        <v>57.907490251827809</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -3520,63 +3520,63 @@
       </c>
       <c r="B17">
         <f ca="1">SQRT(('1D'!$G$3-'1D'!$G18)^2+('1D'!$H$3-'1D'!$H18)^2)</f>
-        <v>124.15788019612978</v>
+        <v>92.798819726434957</v>
       </c>
       <c r="C17">
         <f ca="1">SQRT(('1D'!$G$4-'1D'!$G18)^2+('1D'!$H$4-'1D'!$H18)^2)</f>
-        <v>54.025500388991468</v>
+        <v>69.991863413396189</v>
       </c>
       <c r="D17">
         <f ca="1">SQRT(('1D'!$G$5-'1D'!$G18)^2+('1D'!$H$5-'1D'!$H18)^2)</f>
-        <v>100.16052709954221</v>
+        <v>80.919094289273616</v>
       </c>
       <c r="E17">
         <f ca="1">SQRT(('1D'!$G$6-'1D'!$G18)^2+('1D'!$H$6-'1D'!$H18)^2)</f>
-        <v>91.052378646870196</v>
+        <v>84.16673953707452</v>
       </c>
       <c r="F17">
         <f ca="1">SQRT(('1D'!$G$7-'1D'!$G18)^2+('1D'!$H$7-'1D'!$H18)^2)</f>
-        <v>73.036375070742153</v>
+        <v>27.307949651597333</v>
       </c>
       <c r="G17">
         <f ca="1">SQRT(('1D'!$G$8-'1D'!$G18)^2+('1D'!$H$8-'1D'!$H18)^2)</f>
-        <v>20.690051425913889</v>
+        <v>125.46016863870862</v>
       </c>
       <c r="H17">
         <f ca="1">SQRT(('1D'!$G$9-'1D'!$G18)^2+('1D'!$H$9-'1D'!$H18)^2)</f>
-        <v>72.956151389902971</v>
+        <v>94.723411103002888</v>
       </c>
       <c r="I17">
         <f ca="1">SQRT(('1D'!$G$10-'1D'!$G18)^2+('1D'!$H$10-'1D'!$H18)^2)</f>
-        <v>83.837777237403188</v>
+        <v>68.914325716006886</v>
       </c>
       <c r="J17">
         <f ca="1">SQRT(('1D'!$G$11-'1D'!$G18)^2+('1D'!$H$11-'1D'!$H18)^2)</f>
-        <v>107.83601976339875</v>
+        <v>42.13494233665763</v>
       </c>
       <c r="K17">
         <f ca="1">SQRT(('1D'!$G$12-'1D'!$G18)^2+('1D'!$H$12-'1D'!$H18)^2)</f>
-        <v>42.235712461460146</v>
+        <v>3.3415450705321454</v>
       </c>
       <c r="L17">
         <f ca="1">SQRT(('1D'!$G$13-'1D'!$G18)^2+('1D'!$H$13-'1D'!$H18)^2)</f>
-        <v>10.294588379994936</v>
+        <v>41.798100739478343</v>
       </c>
       <c r="M17">
         <f ca="1">SQRT(('1D'!$G$14-'1D'!$G18)^2+('1D'!$H$14-'1D'!$H18)^2)</f>
-        <v>79.189390187483411</v>
+        <v>105.98216334823309</v>
       </c>
       <c r="N17">
         <f ca="1">SQRT(('1D'!$G$15-'1D'!$G18)^2+('1D'!$H$15-'1D'!$H18)^2)</f>
-        <v>111.0675502274577</v>
+        <v>84.124772446008535</v>
       </c>
       <c r="O17">
         <f ca="1">SQRT(('1D'!$G$16-'1D'!$G18)^2+('1D'!$H$16-'1D'!$H18)^2)</f>
-        <v>71.773607049693283</v>
+        <v>81.241265400651073</v>
       </c>
       <c r="P17">
         <f ca="1">SQRT(('1D'!$G$17-'1D'!$G18)^2+('1D'!$H$17-'1D'!$H18)^2)</f>
-        <v>78.200878359682264</v>
+        <v>57.907490251827809</v>
       </c>
       <c r="Q17">
         <f>SQRT(('1D'!$G$18-'1D'!$G18)^2+('1D'!$H$18-'1D'!$H18)^2)</f>
@@ -3595,8 +3595,8 @@
   </sheetPr>
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3608,63 +3608,63 @@
       </c>
       <c r="B1">
         <f ca="1">Distances!B1/80</f>
-        <v>1.5519735024516224</v>
+        <v>1.159985246580437</v>
       </c>
       <c r="C1">
         <f ca="1">Distances!C1/80</f>
-        <v>0.67531875486239334</v>
+        <v>0.87489829266745234</v>
       </c>
       <c r="D1">
         <f ca="1">Distances!D1/80</f>
-        <v>1.2520065887442775</v>
+        <v>1.0114886786159203</v>
       </c>
       <c r="E1">
+        <f ca="1">Distances!E1/80</f>
+        <v>1.0520842442134315</v>
+      </c>
+      <c r="F1">
         <f ca="1">Distances!F1/80</f>
-        <v>0.91295468838427696</v>
-      </c>
-      <c r="F1">
-        <f ca="1">Distances!G1/80</f>
-        <v>0.25862564282392364</v>
+        <v>0.34134937064496668</v>
       </c>
       <c r="G1">
         <f ca="1">Distances!G1/80</f>
-        <v>0.25862564282392364</v>
+        <v>1.5682521079838578</v>
       </c>
       <c r="H1">
         <f ca="1">Distances!H1/80</f>
-        <v>0.91195189237378715</v>
+        <v>1.184042638787536</v>
       </c>
       <c r="I1">
         <f ca="1">Distances!I1/80</f>
-        <v>1.0479722154675399</v>
+        <v>0.86142907145008607</v>
       </c>
       <c r="J1">
         <f ca="1">Distances!J1/80</f>
-        <v>1.3479502470424845</v>
+        <v>0.52668677920822038</v>
       </c>
       <c r="K1">
         <f ca="1">Distances!K1/80</f>
-        <v>0.5279464057682518</v>
+        <v>4.1769313381651817E-2</v>
       </c>
       <c r="L1">
         <f ca="1">Distances!L1/80</f>
-        <v>0.12868235474993669</v>
+        <v>0.52247625924347929</v>
       </c>
       <c r="M1">
         <f ca="1">Distances!M1/80</f>
-        <v>0.98986737734354269</v>
+        <v>1.3247770418529137</v>
       </c>
       <c r="N1">
         <f ca="1">Distances!N1/80</f>
-        <v>1.3883443778432212</v>
+        <v>1.0515596555751068</v>
       </c>
       <c r="O1">
         <f ca="1">Distances!O1/80</f>
-        <v>0.89717008812116605</v>
+        <v>1.0155158175081385</v>
       </c>
       <c r="P1">
         <f ca="1">Distances!P1/80</f>
-        <v>0.97751097949602828</v>
+        <v>0.72384362814784764</v>
       </c>
       <c r="Q1">
         <f>Distances!Q1/80</f>
@@ -3674,7 +3674,7 @@
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">Distances!A2/80</f>
-        <v>1.5519735024516224</v>
+        <v>1.159985246580437</v>
       </c>
       <c r="B2">
         <f ca="1">Distances!B2/80</f>
@@ -3682,73 +3682,73 @@
       </c>
       <c r="C2">
         <f ca="1">Distances!C2/80</f>
-        <v>1.5779199653271685</v>
+        <v>1.9575435099226275</v>
       </c>
       <c r="D2">
         <f ca="1">Distances!D2/80</f>
-        <v>1.5986176845544684</v>
+        <v>2.1472655610211135</v>
       </c>
       <c r="E2">
         <f ca="1">Distances!E2/80</f>
-        <v>1.1333222386032968</v>
+        <v>0.82930501366650355</v>
       </c>
       <c r="F2">
         <f ca="1">Distances!F2/80</f>
-        <v>2.0874183184853385</v>
+        <v>0.91866986453550525</v>
       </c>
       <c r="G2">
         <f ca="1">Distances!G2/80</f>
-        <v>1.3123161119775966</v>
+        <v>2.1758497789663434</v>
       </c>
       <c r="H2">
         <f ca="1">Distances!H2/80</f>
-        <v>1.2447577956282072</v>
+        <v>1.8684911347628439</v>
       </c>
       <c r="I2">
         <f ca="1">Distances!I2/80</f>
-        <v>2.2973280758939851</v>
+        <v>0.59210212018236419</v>
       </c>
       <c r="J2">
         <f ca="1">Distances!J2/80</f>
-        <v>2.8851214473702695</v>
+        <v>0.722536535594412</v>
       </c>
       <c r="K2">
         <f ca="1">Distances!K2/80</f>
-        <v>1.0418074097710028</v>
+        <v>1.2009738829894856</v>
       </c>
       <c r="L2">
         <f ca="1">Distances!L2/80</f>
-        <v>1.6804151950394992</v>
+        <v>0.6492371699742463</v>
       </c>
       <c r="M2">
         <f ca="1">Distances!M2/80</f>
-        <v>0.87668134519368146</v>
+        <v>0.19818403062599615</v>
       </c>
       <c r="N2">
         <f ca="1">Distances!N2/80</f>
-        <v>1.7557868997599839</v>
+        <v>0.79076668550841611</v>
       </c>
       <c r="O2">
         <f ca="1">Distances!O2/80</f>
-        <v>1.5736543315483744</v>
+        <v>0.87212267561677714</v>
       </c>
       <c r="P2">
         <f ca="1">Distances!P2/80</f>
-        <v>2.1432633295368904</v>
+        <v>0.48130415481806532</v>
       </c>
       <c r="Q2">
         <f ca="1">Distances!Q2/80</f>
-        <v>1.5519735024516224</v>
+        <v>1.159985246580437</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <f ca="1">Distances!A3/80</f>
-        <v>0.67531875486239334</v>
+        <v>0.87489829266745234</v>
       </c>
       <c r="B3">
         <f ca="1">Distances!B3/80</f>
-        <v>1.5779199653271685</v>
+        <v>1.9575435099226275</v>
       </c>
       <c r="C3">
         <f ca="1">Distances!C3/80</f>
@@ -3756,73 +3756,73 @@
       </c>
       <c r="D3">
         <f ca="1">Distances!D3/80</f>
-        <v>0.60367968562109231</v>
+        <v>0.27889513256917187</v>
       </c>
       <c r="E3">
         <f ca="1">Distances!E3/80</f>
-        <v>1.6325453985638607</v>
+        <v>1.9170685134045597</v>
       </c>
       <c r="F3">
         <f ca="1">Distances!F3/80</f>
-        <v>0.5109032700750894</v>
+        <v>1.0388938559881482</v>
       </c>
       <c r="G3">
         <f ca="1">Distances!G3/80</f>
-        <v>0.58787224848802211</v>
+        <v>2.0092815405532116</v>
       </c>
       <c r="H3">
         <f ca="1">Distances!H3/80</f>
-        <v>1.4587806727140946</v>
+        <v>1.6580829750187029</v>
       </c>
       <c r="I3">
         <f ca="1">Distances!I3/80</f>
-        <v>1.6912300054902007</v>
+        <v>1.7359523221829083</v>
       </c>
       <c r="J3">
         <f ca="1">Distances!J3/80</f>
-        <v>1.4937819358163711</v>
+        <v>1.3995944637874862</v>
       </c>
       <c r="K3">
         <f ca="1">Distances!K3/80</f>
-        <v>0.68001388212240355</v>
+        <v>0.83596313002767264</v>
       </c>
       <c r="L3">
         <f ca="1">Distances!L3/80</f>
-        <v>0.71729309534641406</v>
+        <v>1.3144117733179319</v>
       </c>
       <c r="M3">
         <f ca="1">Distances!M3/80</f>
-        <v>1.3853581454441299</v>
+        <v>2.1417807291851974</v>
       </c>
       <c r="N3">
         <f ca="1">Distances!N3/80</f>
-        <v>0.72170543770993167</v>
+        <v>1.9198687467963722</v>
       </c>
       <c r="O3">
         <f ca="1">Distances!O3/80</f>
-        <v>0.23220325712697548</v>
+        <v>1.8750397698109076</v>
       </c>
       <c r="P3">
         <f ca="1">Distances!P3/80</f>
-        <v>1.6415893181863681</v>
+        <v>1.5764052344973098</v>
       </c>
       <c r="Q3">
         <f ca="1">Distances!Q3/80</f>
-        <v>0.67531875486239334</v>
+        <v>0.87489829266745234</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <f ca="1">Distances!A4/80</f>
-        <v>1.2520065887442775</v>
+        <v>1.0114886786159203</v>
       </c>
       <c r="B4">
         <f ca="1">Distances!B4/80</f>
-        <v>1.5986176845544684</v>
+        <v>2.1472655610211135</v>
       </c>
       <c r="C4">
         <f ca="1">Distances!C4/80</f>
-        <v>0.60367968562109231</v>
+        <v>0.27889513256917187</v>
       </c>
       <c r="D4">
         <f ca="1">Distances!D4/80</f>
@@ -3830,73 +3830,73 @@
       </c>
       <c r="E4">
         <f ca="1">Distances!E4/80</f>
-        <v>2.0204618660496054</v>
+        <v>2.0085368440721321</v>
       </c>
       <c r="F4">
         <f ca="1">Distances!F4/80</f>
-        <v>0.8796210288406906</v>
+        <v>1.2358016504112483</v>
       </c>
       <c r="G4">
         <f ca="1">Distances!G4/80</f>
-        <v>1.0972758368898627</v>
+        <v>1.9009499149583777</v>
       </c>
       <c r="H4">
         <f ca="1">Distances!H4/80</f>
-        <v>1.8987338157709897</v>
+        <v>1.5767147629102676</v>
       </c>
       <c r="I4">
         <f ca="1">Distances!I4/80</f>
-        <v>2.2884127844850366</v>
+        <v>1.8619111777914026</v>
       </c>
       <c r="J4">
         <f ca="1">Distances!J4/80</f>
-        <v>1.990147392025436</v>
+        <v>1.5343256285207929</v>
       </c>
       <c r="K4">
         <f ca="1">Distances!K4/80</f>
-        <v>1.0558258748265363</v>
+        <v>0.96994822885696141</v>
       </c>
       <c r="L4">
         <f ca="1">Distances!L4/80</f>
-        <v>1.3117566381416921</v>
+        <v>1.4981017658239348</v>
       </c>
       <c r="M4">
         <f ca="1">Distances!M4/80</f>
-        <v>1.7262801262155345</v>
+        <v>2.3235361162368031</v>
       </c>
       <c r="N4">
         <f ca="1">Distances!N4/80</f>
-        <v>0.17164278527143711</v>
+        <v>2.0165802815026921</v>
       </c>
       <c r="O4">
         <f ca="1">Distances!O4/80</f>
-        <v>0.37228162110907659</v>
+        <v>1.9601310907440603</v>
       </c>
       <c r="P4">
         <f ca="1">Distances!P4/80</f>
-        <v>2.2290106211265948</v>
+        <v>1.7340808945424009</v>
       </c>
       <c r="Q4">
         <f ca="1">Distances!Q4/80</f>
-        <v>1.2520065887442775</v>
+        <v>1.0114886786159203</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <f ca="1">Distances!A5/80</f>
-        <v>1.1381547330858774</v>
+        <v>1.0520842442134315</v>
       </c>
       <c r="B5">
         <f ca="1">Distances!B5/80</f>
-        <v>1.1333222386032968</v>
+        <v>0.82930501366650355</v>
       </c>
       <c r="C5">
         <f ca="1">Distances!C5/80</f>
-        <v>1.6325453985638607</v>
+        <v>1.9170685134045597</v>
       </c>
       <c r="D5">
         <f ca="1">Distances!D5/80</f>
-        <v>2.0204618660496054</v>
+        <v>2.0085368440721321</v>
       </c>
       <c r="E5">
         <f ca="1">Distances!E5/80</f>
@@ -3904,73 +3904,73 @@
       </c>
       <c r="F5">
         <f ca="1">Distances!F5/80</f>
-        <v>2.0201649997214126</v>
+        <v>1.0621868957123071</v>
       </c>
       <c r="G5">
         <f ca="1">Distances!G5/80</f>
-        <v>1.0639967493211762</v>
+        <v>1.4041458859270028</v>
       </c>
       <c r="H5">
         <f ca="1">Distances!H5/80</f>
-        <v>0.25438290567669808</v>
+        <v>1.1574241333515889</v>
       </c>
       <c r="I5">
         <f ca="1">Distances!I5/80</f>
-        <v>1.3509552658875319</v>
+        <v>0.30108894210190856</v>
       </c>
       <c r="J5">
         <f ca="1">Distances!J5/80</f>
-        <v>2.3708397158920755</v>
+        <v>0.57462255681550078</v>
       </c>
       <c r="K5">
         <f ca="1">Distances!K5/80</f>
-        <v>0.97664692646506224</v>
+        <v>1.0875794250181336</v>
       </c>
       <c r="L5">
         <f ca="1">Distances!L5/80</f>
-        <v>1.2241709416061834</v>
+        <v>0.84521224825045937</v>
       </c>
       <c r="M5">
         <f ca="1">Distances!M5/80</f>
-        <v>0.31877753946094745</v>
+        <v>0.8268028600412064</v>
       </c>
       <c r="N5">
         <f ca="1">Distances!N5/80</f>
-        <v>2.1901005950372303</v>
+        <v>3.9616155822184133E-2</v>
       </c>
       <c r="O5">
         <f ca="1">Distances!O5/80</f>
-        <v>1.7790514427690607</v>
+        <v>6.5115162159262233E-2</v>
       </c>
       <c r="P5">
         <f ca="1">Distances!P5/80</f>
-        <v>1.1773694825457786</v>
+        <v>0.56965940874887666</v>
       </c>
       <c r="Q5">
         <f ca="1">Distances!Q5/80</f>
-        <v>1.1381547330858774</v>
+        <v>1.0520842442134315</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <f ca="1">Distances!A6/80</f>
-        <v>0.91295468838427696</v>
+        <v>0.34134937064496668</v>
       </c>
       <c r="B6">
         <f ca="1">Distances!B6/80</f>
-        <v>2.0874183184853385</v>
+        <v>0.91866986453550525</v>
       </c>
       <c r="C6">
         <f ca="1">Distances!C6/80</f>
-        <v>0.5109032700750894</v>
+        <v>1.0388938559881482</v>
       </c>
       <c r="D6">
         <f ca="1">Distances!D6/80</f>
-        <v>0.8796210288406906</v>
+        <v>1.2358016504112483</v>
       </c>
       <c r="E6">
         <f ca="1">Distances!E6/80</f>
-        <v>2.0201649997214126</v>
+        <v>1.0621868957123071</v>
       </c>
       <c r="F6">
         <f ca="1">Distances!F6/80</f>
@@ -3978,73 +3978,73 @@
       </c>
       <c r="G6">
         <f ca="1">Distances!G6/80</f>
-        <v>0.96166468661549431</v>
+        <v>1.8537668758669519</v>
       </c>
       <c r="H6">
         <f ca="1">Distances!H6/80</f>
-        <v>1.8122489644382118</v>
+        <v>1.4750348083761582</v>
       </c>
       <c r="I6">
         <f ca="1">Distances!I6/80</f>
-        <v>1.7312855901179993</v>
+        <v>0.80086389314307649</v>
       </c>
       <c r="J6">
         <f ca="1">Distances!J6/80</f>
-        <v>1.1163565121186758</v>
+        <v>0.4884322785317986</v>
       </c>
       <c r="K6">
         <f ca="1">Distances!K6/80</f>
-        <v>1.1386394705754967</v>
+        <v>0.36959564072238371</v>
       </c>
       <c r="L6">
         <f ca="1">Distances!L6/80</f>
-        <v>0.87835340126099271</v>
+        <v>0.28191592657502296</v>
       </c>
       <c r="M6">
         <f ca="1">Distances!M6/80</f>
-        <v>1.8132464157036736</v>
+        <v>1.1038806625274495</v>
       </c>
       <c r="N6">
         <f ca="1">Distances!N6/80</f>
-        <v>0.9063362341540907</v>
+        <v>1.0490274809437026</v>
       </c>
       <c r="O6">
         <f ca="1">Distances!O6/80</f>
-        <v>0.59733508900916776</v>
+        <v>1.0449261390150231</v>
       </c>
       <c r="P6">
         <f ca="1">Distances!P6/80</f>
-        <v>1.7333444844497312</v>
+        <v>0.57659455027467776</v>
       </c>
       <c r="Q6">
         <f ca="1">Distances!Q6/80</f>
-        <v>0.91295468838427696</v>
+        <v>0.34134937064496668</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <f ca="1">Distances!A7/80</f>
-        <v>0.25862564282392364</v>
+        <v>1.5682521079838578</v>
       </c>
       <c r="B7">
         <f ca="1">Distances!B7/80</f>
-        <v>1.3123161119775966</v>
+        <v>2.1758497789663434</v>
       </c>
       <c r="C7">
         <f ca="1">Distances!C7/80</f>
-        <v>0.58787224848802211</v>
+        <v>2.0092815405532116</v>
       </c>
       <c r="D7">
         <f ca="1">Distances!D7/80</f>
-        <v>1.0972758368898627</v>
+        <v>1.9009499149583777</v>
       </c>
       <c r="E7">
         <f ca="1">Distances!E7/80</f>
-        <v>1.0639967493211762</v>
+        <v>1.4041458859270028</v>
       </c>
       <c r="F7">
         <f ca="1">Distances!F7/80</f>
-        <v>0.96166468661549431</v>
+        <v>1.8537668758669519</v>
       </c>
       <c r="G7">
         <f ca="1">Distances!G7/80</f>
@@ -4052,73 +4052,73 @@
       </c>
       <c r="H7">
         <f ca="1">Distances!H7/80</f>
-        <v>0.87453625464428852</v>
+        <v>0.38481811516046871</v>
       </c>
       <c r="I7">
         <f ca="1">Distances!I7/80</f>
-        <v>1.2645736607763334</v>
+        <v>1.5841640261062306</v>
       </c>
       <c r="J7">
         <f ca="1">Distances!J7/80</f>
-        <v>1.5736215000576963</v>
+        <v>1.5569370562287332</v>
       </c>
       <c r="K7">
         <f ca="1">Distances!K7/80</f>
-        <v>0.27427858445239928</v>
+        <v>1.5662516223524034</v>
       </c>
       <c r="L7">
         <f ca="1">Distances!L7/80</f>
-        <v>0.38372591923356486</v>
+        <v>1.8425551167203977</v>
       </c>
       <c r="M7">
         <f ca="1">Distances!M7/80</f>
-        <v>0.85406341377773798</v>
+        <v>2.2170254975775565</v>
       </c>
       <c r="N7">
         <f ca="1">Distances!N7/80</f>
-        <v>1.2494096821354943</v>
+        <v>1.4426280184754527</v>
       </c>
       <c r="O7">
         <f ca="1">Distances!O7/80</f>
-        <v>0.7758382077764352</v>
+        <v>1.3447063123025975</v>
       </c>
       <c r="P7">
         <f ca="1">Distances!P7/80</f>
-        <v>1.172334756910874</v>
+        <v>1.7505385285497348</v>
       </c>
       <c r="Q7">
         <f ca="1">Distances!Q7/80</f>
-        <v>0.25862564282392364</v>
+        <v>1.5682521079838578</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <f ca="1">Distances!A8/80</f>
-        <v>0.91195189237378715</v>
+        <v>1.184042638787536</v>
       </c>
       <c r="B8">
         <f ca="1">Distances!B8/80</f>
-        <v>1.2447577956282072</v>
+        <v>1.8684911347628439</v>
       </c>
       <c r="C8">
         <f ca="1">Distances!C8/80</f>
-        <v>1.4587806727140946</v>
+        <v>1.6580829750187029</v>
       </c>
       <c r="D8">
         <f ca="1">Distances!D8/80</f>
-        <v>1.8987338157709897</v>
+        <v>1.5767147629102676</v>
       </c>
       <c r="E8">
         <f ca="1">Distances!E8/80</f>
-        <v>0.25438290567669808</v>
+        <v>1.1574241333515889</v>
       </c>
       <c r="F8">
         <f ca="1">Distances!F8/80</f>
-        <v>1.8122489644382118</v>
+        <v>1.4750348083761582</v>
       </c>
       <c r="G8">
         <f ca="1">Distances!G8/80</f>
-        <v>0.87453625464428852</v>
+        <v>0.38481811516046871</v>
       </c>
       <c r="H8">
         <f ca="1">Distances!H8/80</f>
@@ -4126,73 +4126,73 @@
       </c>
       <c r="I8">
         <f ca="1">Distances!I8/80</f>
-        <v>1.1249956668383432</v>
+        <v>1.2856905878486256</v>
       </c>
       <c r="J8">
         <f ca="1">Distances!J8/80</f>
-        <v>2.1175494701993274</v>
+        <v>1.2094181724708304</v>
       </c>
       <c r="K8">
         <f ca="1">Distances!K8/80</f>
-        <v>0.8430154504145545</v>
+        <v>1.1815597467130883</v>
       </c>
       <c r="L8">
         <f ca="1">Distances!L8/80</f>
-        <v>0.9880061313000521</v>
+        <v>1.4809184228592396</v>
       </c>
       <c r="M8">
         <f ca="1">Distances!M8/80</f>
-        <v>0.36808844109127292</v>
+        <v>1.9326386070861374</v>
       </c>
       <c r="N8">
         <f ca="1">Distances!N8/80</f>
-        <v>2.0645215206140337</v>
+        <v>1.1927859722953793</v>
       </c>
       <c r="O8">
         <f ca="1">Distances!O8/80</f>
-        <v>1.6258398350301551</v>
+        <v>1.0934092460778138</v>
       </c>
       <c r="P8">
         <f ca="1">Distances!P8/80</f>
-        <v>0.95472448136407662</v>
+        <v>1.4192486651943685</v>
       </c>
       <c r="Q8">
         <f ca="1">Distances!Q8/80</f>
-        <v>0.91195189237378715</v>
+        <v>1.184042638787536</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <f ca="1">Distances!A9/80</f>
-        <v>1.0479722154675399</v>
+        <v>0.86142907145008607</v>
       </c>
       <c r="B9">
         <f ca="1">Distances!B9/80</f>
-        <v>2.2973280758939851</v>
+        <v>0.59210212018236419</v>
       </c>
       <c r="C9">
         <f ca="1">Distances!C9/80</f>
-        <v>1.6912300054902007</v>
+        <v>1.7359523221829083</v>
       </c>
       <c r="D9">
         <f ca="1">Distances!D9/80</f>
-        <v>2.2884127844850366</v>
+        <v>1.8619111777914026</v>
       </c>
       <c r="E9">
         <f ca="1">Distances!E9/80</f>
-        <v>1.3509552658875319</v>
+        <v>0.30108894210190856</v>
       </c>
       <c r="F9">
         <f ca="1">Distances!F9/80</f>
-        <v>1.7312855901179993</v>
+        <v>0.80086389314307649</v>
       </c>
       <c r="G9">
         <f ca="1">Distances!G9/80</f>
-        <v>1.2645736607763334</v>
+        <v>1.5841640261062306</v>
       </c>
       <c r="H9">
         <f ca="1">Distances!H9/80</f>
-        <v>1.1249956668383432</v>
+        <v>1.2856905878486256</v>
       </c>
       <c r="I9">
         <f ca="1">Distances!I9/80</f>
@@ -4200,73 +4200,73 @@
       </c>
       <c r="J9">
         <f ca="1">Distances!J9/80</f>
-        <v>1.3731920137347586</v>
+        <v>0.33790494012495198</v>
       </c>
       <c r="K9">
         <f ca="1">Distances!K9/80</f>
-        <v>1.4701346702860532</v>
+        <v>0.90117145831523193</v>
       </c>
       <c r="L9">
         <f ca="1">Distances!L9/80</f>
-        <v>0.97666819703877827</v>
+        <v>0.55893841341622186</v>
       </c>
       <c r="M9">
         <f ca="1">Distances!M9/80</f>
-        <v>1.4601371385581421</v>
+        <v>0.64882135307177691</v>
       </c>
       <c r="N9">
         <f ca="1">Distances!N9/80</f>
-        <v>2.4128525850676379</v>
+        <v>0.27404529870764394</v>
       </c>
       <c r="O9">
         <f ca="1">Distances!O9/80</f>
-        <v>1.9222952715074015</v>
+        <v>0.31719663161237954</v>
       </c>
       <c r="P9">
         <f ca="1">Distances!P9/80</f>
-        <v>0.17503983318193636</v>
+        <v>0.26958812563311485</v>
       </c>
       <c r="Q9">
         <f ca="1">Distances!Q9/80</f>
-        <v>1.0479722154675399</v>
+        <v>0.86142907145008607</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <f ca="1">Distances!A10/80</f>
-        <v>1.3479502470424845</v>
+        <v>0.52668677920822038</v>
       </c>
       <c r="B10">
         <f ca="1">Distances!B10/80</f>
-        <v>2.8851214473702695</v>
+        <v>0.722536535594412</v>
       </c>
       <c r="C10">
         <f ca="1">Distances!C10/80</f>
-        <v>1.4937819358163711</v>
+        <v>1.3995944637874862</v>
       </c>
       <c r="D10">
         <f ca="1">Distances!D10/80</f>
-        <v>1.990147392025436</v>
+        <v>1.5343256285207929</v>
       </c>
       <c r="E10">
         <f ca="1">Distances!E10/80</f>
-        <v>2.3708397158920755</v>
+        <v>0.57462255681550078</v>
       </c>
       <c r="F10">
         <f ca="1">Distances!F10/80</f>
-        <v>1.1163565121186758</v>
+        <v>0.4884322785317986</v>
       </c>
       <c r="G10">
         <f ca="1">Distances!G10/80</f>
-        <v>1.5736215000576963</v>
+        <v>1.5569370562287332</v>
       </c>
       <c r="H10">
         <f ca="1">Distances!H10/80</f>
-        <v>2.1175494701993274</v>
+        <v>1.2094181724708304</v>
       </c>
       <c r="I10">
         <f ca="1">Distances!I10/80</f>
-        <v>1.3731920137347586</v>
+        <v>0.33790494012495198</v>
       </c>
       <c r="J10">
         <f ca="1">Distances!J10/80</f>
@@ -4274,73 +4274,73 @@
       </c>
       <c r="K10">
         <f ca="1">Distances!K10/80</f>
-        <v>1.843445877083441</v>
+        <v>0.56723539734837802</v>
       </c>
       <c r="L10">
         <f ca="1">Distances!L10/80</f>
-        <v>1.2242729532130188</v>
+        <v>0.31344829834055882</v>
       </c>
       <c r="M10">
         <f ca="1">Distances!M10/80</f>
-        <v>2.3035456237844358</v>
+        <v>0.85227359190524932</v>
       </c>
       <c r="N10">
         <f ca="1">Distances!N10/80</f>
-        <v>2.0223652166744461</v>
+        <v>0.56345555269352332</v>
       </c>
       <c r="O10">
         <f ca="1">Distances!O10/80</f>
-        <v>1.6671985756556325</v>
+        <v>0.55660788952165974</v>
       </c>
       <c r="P10">
         <f ca="1">Distances!P10/80</f>
-        <v>1.4871054698547987</v>
+        <v>0.24143230549793288</v>
       </c>
       <c r="Q10">
         <f ca="1">Distances!Q10/80</f>
-        <v>1.3479502470424845</v>
+        <v>0.52668677920822038</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <f ca="1">Distances!A11/80</f>
-        <v>0.5279464057682518</v>
+        <v>4.1769313381651817E-2</v>
       </c>
       <c r="B11">
         <f ca="1">Distances!B11/80</f>
-        <v>1.0418074097710028</v>
+        <v>1.2009738829894856</v>
       </c>
       <c r="C11">
         <f ca="1">Distances!C11/80</f>
-        <v>0.68001388212240355</v>
+        <v>0.83596313002767264</v>
       </c>
       <c r="D11">
         <f ca="1">Distances!D11/80</f>
-        <v>1.0558258748265363</v>
+        <v>0.96994822885696141</v>
       </c>
       <c r="E11">
         <f ca="1">Distances!E11/80</f>
-        <v>0.97664692646506224</v>
+        <v>1.0875794250181336</v>
       </c>
       <c r="F11">
         <f ca="1">Distances!F11/80</f>
-        <v>1.1386394705754967</v>
+        <v>0.36959564072238371</v>
       </c>
       <c r="G11">
         <f ca="1">Distances!G11/80</f>
-        <v>0.27427858445239928</v>
+        <v>1.5662516223524034</v>
       </c>
       <c r="H11">
         <f ca="1">Distances!H11/80</f>
-        <v>0.8430154504145545</v>
+        <v>1.1815597467130883</v>
       </c>
       <c r="I11">
         <f ca="1">Distances!I11/80</f>
-        <v>1.4701346702860532</v>
+        <v>0.90117145831523193</v>
       </c>
       <c r="J11">
         <f ca="1">Distances!J11/80</f>
-        <v>1.843445877083441</v>
+        <v>0.56723539734837802</v>
       </c>
       <c r="K11">
         <f ca="1">Distances!K11/80</f>
@@ -4348,73 +4348,73 @@
       </c>
       <c r="L11">
         <f ca="1">Distances!L11/80</f>
-        <v>0.65548945626764032</v>
+        <v>0.56182819908797299</v>
       </c>
       <c r="M11">
         <f ca="1">Distances!M11/80</f>
-        <v>0.70871292283883447</v>
+        <v>1.3663093736390299</v>
       </c>
       <c r="N11">
         <f ca="1">Distances!N11/80</f>
-        <v>1.2223467515435265</v>
+        <v>1.0878458220821201</v>
       </c>
       <c r="O11">
         <f ca="1">Distances!O11/80</f>
-        <v>0.80384613065835142</v>
+        <v>1.0498451008654492</v>
       </c>
       <c r="P11">
         <f ca="1">Distances!P11/80</f>
-        <v>1.3571194853172828</v>
+        <v>0.76560007834476718</v>
       </c>
       <c r="Q11">
         <f ca="1">Distances!Q11/80</f>
-        <v>0.5279464057682518</v>
+        <v>4.1769313381651817E-2</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <f ca="1">Distances!A12/80</f>
-        <v>0.12868235474993669</v>
+        <v>0.52247625924347929</v>
       </c>
       <c r="B12">
         <f ca="1">Distances!B12/80</f>
-        <v>1.6804151950394992</v>
+        <v>0.6492371699742463</v>
       </c>
       <c r="C12">
         <f ca="1">Distances!C12/80</f>
-        <v>0.71729309534641406</v>
+        <v>1.3144117733179319</v>
       </c>
       <c r="D12">
         <f ca="1">Distances!D12/80</f>
-        <v>1.3117566381416921</v>
+        <v>1.4981017658239348</v>
       </c>
       <c r="E12">
         <f ca="1">Distances!E12/80</f>
-        <v>1.2241709416061834</v>
+        <v>0.84521224825045937</v>
       </c>
       <c r="F12">
         <f ca="1">Distances!F12/80</f>
-        <v>0.87835340126099271</v>
+        <v>0.28191592657502296</v>
       </c>
       <c r="G12">
         <f ca="1">Distances!G12/80</f>
-        <v>0.38372591923356486</v>
+        <v>1.8425551167203977</v>
       </c>
       <c r="H12">
         <f ca="1">Distances!H12/80</f>
-        <v>0.9880061313000521</v>
+        <v>1.4809184228592396</v>
       </c>
       <c r="I12">
         <f ca="1">Distances!I12/80</f>
-        <v>0.97666819703877827</v>
+        <v>0.55893841341622186</v>
       </c>
       <c r="J12">
         <f ca="1">Distances!J12/80</f>
-        <v>1.2242729532130188</v>
+        <v>0.31344829834055882</v>
       </c>
       <c r="K12">
         <f ca="1">Distances!K12/80</f>
-        <v>0.65548945626764032</v>
+        <v>0.56182819908797299</v>
       </c>
       <c r="L12">
         <f ca="1">Distances!L12/80</f>
@@ -4422,73 +4422,73 @@
       </c>
       <c r="M12">
         <f ca="1">Distances!M12/80</f>
-        <v>1.0975973018693614</v>
+        <v>0.82802995355144193</v>
       </c>
       <c r="N12">
         <f ca="1">Distances!N12/80</f>
-        <v>1.4385809684102338</v>
+        <v>0.82531781072363386</v>
       </c>
       <c r="O12">
         <f ca="1">Distances!O12/80</f>
-        <v>0.94690752895457098</v>
+        <v>0.84070827271294335</v>
       </c>
       <c r="P12">
         <f ca="1">Distances!P12/80</f>
-        <v>0.925053946973733</v>
+        <v>0.30767501048385282</v>
       </c>
       <c r="Q12">
         <f ca="1">Distances!Q12/80</f>
-        <v>0.12868235474993669</v>
+        <v>0.52247625924347929</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <f ca="1">Distances!A13/80</f>
-        <v>0.98986737734354269</v>
+        <v>1.3247770418529137</v>
       </c>
       <c r="B13">
         <f ca="1">Distances!B13/80</f>
-        <v>0.87668134519368146</v>
+        <v>0.19818403062599615</v>
       </c>
       <c r="C13">
         <f ca="1">Distances!C13/80</f>
-        <v>1.3853581454441299</v>
+        <v>2.1417807291851974</v>
       </c>
       <c r="D13">
         <f ca="1">Distances!D13/80</f>
-        <v>1.7262801262155345</v>
+        <v>2.3235361162368031</v>
       </c>
       <c r="E13">
         <f ca="1">Distances!E13/80</f>
-        <v>0.31877753946094745</v>
+        <v>0.8268028600412064</v>
       </c>
       <c r="F13">
         <f ca="1">Distances!F13/80</f>
-        <v>1.8132464157036736</v>
+        <v>1.1038806625274495</v>
       </c>
       <c r="G13">
         <f ca="1">Distances!G13/80</f>
-        <v>0.85406341377773798</v>
+        <v>2.2170254975775565</v>
       </c>
       <c r="H13">
         <f ca="1">Distances!H13/80</f>
-        <v>0.36808844109127292</v>
+        <v>1.9326386070861374</v>
       </c>
       <c r="I13">
         <f ca="1">Distances!I13/80</f>
-        <v>1.4601371385581421</v>
+        <v>0.64882135307177691</v>
       </c>
       <c r="J13">
         <f ca="1">Distances!J13/80</f>
-        <v>2.3035456237844358</v>
+        <v>0.85227359190524932</v>
       </c>
       <c r="K13">
         <f ca="1">Distances!K13/80</f>
-        <v>0.70871292283883447</v>
+        <v>1.3663093736390299</v>
       </c>
       <c r="L13">
         <f ca="1">Distances!L13/80</f>
-        <v>1.0975973018693614</v>
+        <v>0.82802995355144193</v>
       </c>
       <c r="M13">
         <f ca="1">Distances!M13/80</f>
@@ -4496,73 +4496,73 @@
       </c>
       <c r="N13">
         <f ca="1">Distances!N13/80</f>
-        <v>1.8972402066093319</v>
+        <v>0.78718954892434811</v>
       </c>
       <c r="O13">
         <f ca="1">Distances!O13/80</f>
-        <v>1.5095176415538538</v>
+        <v>0.87979869858956494</v>
       </c>
       <c r="P13">
         <f ca="1">Distances!P13/80</f>
-        <v>1.2960421012046361</v>
+        <v>0.61502259117804392</v>
       </c>
       <c r="Q13">
         <f ca="1">Distances!Q13/80</f>
-        <v>0.98986737734354269</v>
+        <v>1.3247770418529137</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <f ca="1">Distances!A14/80</f>
-        <v>1.3883443778432212</v>
+        <v>1.0515596555751068</v>
       </c>
       <c r="B14">
         <f ca="1">Distances!B14/80</f>
-        <v>1.7557868997599839</v>
+        <v>0.79076668550841611</v>
       </c>
       <c r="C14">
         <f ca="1">Distances!C14/80</f>
-        <v>0.72170543770993167</v>
+        <v>1.9198687467963722</v>
       </c>
       <c r="D14">
         <f ca="1">Distances!D14/80</f>
-        <v>0.17164278527143711</v>
+        <v>2.0165802815026921</v>
       </c>
       <c r="E14">
         <f ca="1">Distances!E14/80</f>
-        <v>2.1901005950372303</v>
+        <v>3.9616155822184133E-2</v>
       </c>
       <c r="F14">
         <f ca="1">Distances!F14/80</f>
-        <v>0.9063362341540907</v>
+        <v>1.0490274809437026</v>
       </c>
       <c r="G14">
         <f ca="1">Distances!G14/80</f>
-        <v>1.2494096821354943</v>
+        <v>1.4426280184754527</v>
       </c>
       <c r="H14">
         <f ca="1">Distances!H14/80</f>
-        <v>2.0645215206140337</v>
+        <v>1.1927859722953793</v>
       </c>
       <c r="I14">
         <f ca="1">Distances!I14/80</f>
-        <v>2.4128525850676379</v>
+        <v>0.27404529870764394</v>
       </c>
       <c r="J14">
         <f ca="1">Distances!J14/80</f>
-        <v>2.0223652166744461</v>
+        <v>0.56345555269352332</v>
       </c>
       <c r="K14">
         <f ca="1">Distances!K14/80</f>
-        <v>1.2223467515435265</v>
+        <v>1.0878458220821201</v>
       </c>
       <c r="L14">
         <f ca="1">Distances!L14/80</f>
-        <v>1.4385809684102338</v>
+        <v>0.82531781072363386</v>
       </c>
       <c r="M14">
         <f ca="1">Distances!M14/80</f>
-        <v>1.8972402066093319</v>
+        <v>0.78718954892434811</v>
       </c>
       <c r="N14">
         <f ca="1">Distances!N14/80</f>
@@ -4570,73 +4570,73 @@
       </c>
       <c r="O14">
         <f ca="1">Distances!O14/80</f>
-        <v>0.49211179768715374</v>
+        <v>9.9515771499087552E-2</v>
       </c>
       <c r="P14">
         <f ca="1">Distances!P14/80</f>
-        <v>2.361581576493323</v>
+        <v>0.54360936841951013</v>
       </c>
       <c r="Q14">
         <f ca="1">Distances!Q14/80</f>
-        <v>1.3883443778432212</v>
+        <v>1.0515596555751068</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <f ca="1">Distances!A15/80</f>
-        <v>0.89717008812116605</v>
+        <v>1.0155158175081385</v>
       </c>
       <c r="B15">
         <f ca="1">Distances!B15/80</f>
-        <v>1.5736543315483744</v>
+        <v>0.87212267561677714</v>
       </c>
       <c r="C15">
         <f ca="1">Distances!C15/80</f>
-        <v>0.23220325712697548</v>
+        <v>1.8750397698109076</v>
       </c>
       <c r="D15">
         <f ca="1">Distances!D15/80</f>
-        <v>0.37228162110907659</v>
+        <v>1.9601310907440603</v>
       </c>
       <c r="E15">
         <f ca="1">Distances!E15/80</f>
-        <v>1.7790514427690607</v>
+        <v>6.5115162159262233E-2</v>
       </c>
       <c r="F15">
         <f ca="1">Distances!F15/80</f>
-        <v>0.59733508900916776</v>
+        <v>1.0449261390150231</v>
       </c>
       <c r="G15">
         <f ca="1">Distances!G15/80</f>
-        <v>0.7758382077764352</v>
+        <v>1.3447063123025975</v>
       </c>
       <c r="H15">
         <f ca="1">Distances!H15/80</f>
-        <v>1.6258398350301551</v>
+        <v>1.0934092460778138</v>
       </c>
       <c r="I15">
         <f ca="1">Distances!I15/80</f>
-        <v>1.9222952715074015</v>
+        <v>0.31719663161237954</v>
       </c>
       <c r="J15">
         <f ca="1">Distances!J15/80</f>
-        <v>1.6671985756556325</v>
+        <v>0.55660788952165974</v>
       </c>
       <c r="K15">
         <f ca="1">Distances!K15/80</f>
-        <v>0.80384613065835142</v>
+        <v>1.0498451008654492</v>
       </c>
       <c r="L15">
         <f ca="1">Distances!L15/80</f>
-        <v>0.94690752895457098</v>
+        <v>0.84070827271294335</v>
       </c>
       <c r="M15">
         <f ca="1">Distances!M15/80</f>
-        <v>1.5095176415538538</v>
+        <v>0.87979869858956494</v>
       </c>
       <c r="N15">
         <f ca="1">Distances!N15/80</f>
-        <v>0.49211179768715374</v>
+        <v>9.9515771499087552E-2</v>
       </c>
       <c r="O15">
         <f ca="1">Distances!O15/80</f>
@@ -4644,73 +4644,73 @@
       </c>
       <c r="P15">
         <f ca="1">Distances!P15/80</f>
-        <v>1.8694699873823495</v>
+        <v>0.5791455908767793</v>
       </c>
       <c r="Q15">
         <f ca="1">Distances!Q15/80</f>
-        <v>0.89717008812116605</v>
+        <v>1.0155158175081385</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <f ca="1">Distances!A16/80</f>
-        <v>0.97751097949602828</v>
+        <v>0.72384362814784764</v>
       </c>
       <c r="B16">
         <f ca="1">Distances!B16/80</f>
-        <v>2.1432633295368904</v>
+        <v>0.48130415481806532</v>
       </c>
       <c r="C16">
         <f ca="1">Distances!C16/80</f>
-        <v>1.6415893181863681</v>
+        <v>1.5764052344973098</v>
       </c>
       <c r="D16">
         <f ca="1">Distances!D16/80</f>
-        <v>2.2290106211265948</v>
+        <v>1.7340808945424009</v>
       </c>
       <c r="E16">
         <f ca="1">Distances!E16/80</f>
-        <v>1.1773694825457786</v>
+        <v>0.56965940874887666</v>
       </c>
       <c r="F16">
         <f ca="1">Distances!F16/80</f>
-        <v>1.7333444844497312</v>
+        <v>0.57659455027467776</v>
       </c>
       <c r="G16">
         <f ca="1">Distances!G16/80</f>
-        <v>1.172334756910874</v>
+        <v>1.7505385285497348</v>
       </c>
       <c r="H16">
         <f ca="1">Distances!H16/80</f>
-        <v>0.95472448136407662</v>
+        <v>1.4192486651943685</v>
       </c>
       <c r="I16">
         <f ca="1">Distances!I16/80</f>
-        <v>0.17503983318193636</v>
+        <v>0.26958812563311485</v>
       </c>
       <c r="J16">
         <f ca="1">Distances!J16/80</f>
-        <v>1.4871054698547987</v>
+        <v>0.24143230549793288</v>
       </c>
       <c r="K16">
         <f ca="1">Distances!K16/80</f>
-        <v>1.3571194853172828</v>
+        <v>0.76560007834476718</v>
       </c>
       <c r="L16">
         <f ca="1">Distances!L16/80</f>
-        <v>0.925053946973733</v>
+        <v>0.30767501048385282</v>
       </c>
       <c r="M16">
         <f ca="1">Distances!M16/80</f>
-        <v>1.2960421012046361</v>
+        <v>0.61502259117804392</v>
       </c>
       <c r="N16">
         <f ca="1">Distances!N16/80</f>
-        <v>2.361581576493323</v>
+        <v>0.54360936841951013</v>
       </c>
       <c r="O16">
         <f ca="1">Distances!O16/80</f>
-        <v>1.8694699873823495</v>
+        <v>0.5791455908767793</v>
       </c>
       <c r="P16">
         <f ca="1">Distances!P16/80</f>
@@ -4718,7 +4718,7 @@
       </c>
       <c r="Q16">
         <f ca="1">Distances!Q16/80</f>
-        <v>0.97751097949602828</v>
+        <v>0.72384362814784764</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -4728,63 +4728,63 @@
       </c>
       <c r="B17">
         <f ca="1">Distances!B17/80</f>
-        <v>1.5519735024516224</v>
+        <v>1.159985246580437</v>
       </c>
       <c r="C17">
         <f ca="1">Distances!C17/80</f>
-        <v>0.67531875486239334</v>
+        <v>0.87489829266745234</v>
       </c>
       <c r="D17">
         <f ca="1">Distances!D17/80</f>
-        <v>1.2520065887442775</v>
+        <v>1.0114886786159203</v>
       </c>
       <c r="E17">
         <f ca="1">Distances!E17/80</f>
-        <v>1.1381547330858774</v>
+        <v>1.0520842442134315</v>
       </c>
       <c r="F17">
         <f ca="1">Distances!F17/80</f>
-        <v>0.91295468838427696</v>
+        <v>0.34134937064496668</v>
       </c>
       <c r="G17">
         <f ca="1">Distances!G17/80</f>
-        <v>0.25862564282392364</v>
+        <v>1.5682521079838578</v>
       </c>
       <c r="H17">
         <f ca="1">Distances!H17/80</f>
-        <v>0.91195189237378715</v>
+        <v>1.184042638787536</v>
       </c>
       <c r="I17">
         <f ca="1">Distances!I17/80</f>
-        <v>1.0479722154675399</v>
+        <v>0.86142907145008607</v>
       </c>
       <c r="J17">
         <f ca="1">Distances!J17/80</f>
-        <v>1.3479502470424845</v>
+        <v>0.52668677920822038</v>
       </c>
       <c r="K17">
         <f ca="1">Distances!K17/80</f>
-        <v>0.5279464057682518</v>
+        <v>4.1769313381651817E-2</v>
       </c>
       <c r="L17">
         <f ca="1">Distances!L17/80</f>
-        <v>0.12868235474993669</v>
+        <v>0.52247625924347929</v>
       </c>
       <c r="M17">
         <f ca="1">Distances!M17/80</f>
-        <v>0.98986737734354269</v>
+        <v>1.3247770418529137</v>
       </c>
       <c r="N17">
         <f ca="1">Distances!N17/80</f>
-        <v>1.3883443778432212</v>
+        <v>1.0515596555751068</v>
       </c>
       <c r="O17">
         <f ca="1">Distances!O17/80</f>
-        <v>0.89717008812116605</v>
+        <v>1.0155158175081385</v>
       </c>
       <c r="P17">
         <f ca="1">Distances!P17/80</f>
-        <v>0.97751097949602828</v>
+        <v>0.72384362814784764</v>
       </c>
       <c r="Q17">
         <f>Distances!Q17/80</f>
